--- a/dados_heritage_sem_outliers.xlsx
+++ b/dados_heritage_sem_outliers.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igor2\Downloads\K-means - Artigo Dissertação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD14C92-FC51-4678-9FFD-3B1F9478628C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82C7A0B9-C9F7-40B7-AA76-62C3D445E789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5B0CDDC8-A4C4-4758-BBA3-CA2177E75700}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$170</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t>Property Rights</t>
   </si>
@@ -66,6 +63,9 @@
     <t>Financial Freedom</t>
   </si>
   <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -90,6 +90,9 @@
     <t>Azerbaijan</t>
   </si>
   <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
     <t>Bahrain</t>
   </si>
   <si>
@@ -240,6 +243,9 @@
     <t>Gabon</t>
   </si>
   <si>
+    <t>Gambia</t>
+  </si>
+  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -270,6 +276,9 @@
     <t>Honduras</t>
   </si>
   <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
     <t>Hungary</t>
   </si>
   <si>
@@ -282,6 +291,9 @@
     <t>Indonesia</t>
   </si>
   <si>
+    <t>Iran</t>
+  </si>
+  <si>
     <t>Ireland</t>
   </si>
   <si>
@@ -309,6 +321,9 @@
     <t>Kiribati</t>
   </si>
   <si>
+    <t>Korea, South</t>
+  </si>
+  <si>
     <t>Kosovo</t>
   </si>
   <si>
@@ -324,6 +339,9 @@
     <t>Latvia</t>
   </si>
   <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
     <t>Lesotho</t>
   </si>
   <si>
@@ -336,6 +354,12 @@
     <t>Luxembourg</t>
   </si>
   <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -492,6 +516,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>Sudan</t>
+  </si>
+  <si>
     <t>Suriname</t>
   </si>
   <si>
@@ -537,6 +564,9 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
@@ -561,16 +591,7 @@
     <t>Zambia</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Korea </t>
-  </si>
-  <si>
-    <t>The Bahamas</t>
-  </si>
-  <si>
-    <t>The Gambia</t>
+    <t>Zimbabwe</t>
   </si>
 </sst>
 </file>
@@ -922,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34A7BEE-5975-4F05-B53D-0BCD523D7308}">
-  <dimension ref="A1:M170"/>
+  <dimension ref="A1:M178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:XFD88"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176:XFD176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -988,40 +1009,40 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>55.9</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="C2">
+        <v>29.6</v>
+      </c>
+      <c r="D2">
+        <v>25.2</v>
+      </c>
+      <c r="E2">
+        <v>91.7</v>
+      </c>
+      <c r="F2">
+        <v>80.3</v>
+      </c>
+      <c r="G2">
+        <v>99.3</v>
+      </c>
+      <c r="H2">
         <v>49.2</v>
       </c>
-      <c r="D2">
-        <v>35.5</v>
-      </c>
-      <c r="E2">
-        <v>89.1</v>
-      </c>
-      <c r="F2">
-        <v>71</v>
-      </c>
-      <c r="G2">
-        <v>58.2</v>
-      </c>
-      <c r="H2">
-        <v>70.7</v>
-      </c>
       <c r="I2">
-        <v>49.7</v>
+        <v>60.4</v>
       </c>
       <c r="J2">
-        <v>81.3</v>
+        <v>76.7</v>
       </c>
       <c r="K2">
-        <v>82.8</v>
+        <v>66</v>
       </c>
       <c r="L2">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="M2">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -1029,40 +1050,40 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>27.8</v>
+        <v>54.8</v>
       </c>
       <c r="C3">
-        <v>29.5</v>
+        <v>30.6</v>
       </c>
       <c r="D3">
-        <v>28.4</v>
+        <v>40.4</v>
       </c>
       <c r="E3">
-        <v>71.900000000000006</v>
+        <v>86.3</v>
       </c>
       <c r="F3">
-        <v>50.7</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="G3">
-        <v>12.1</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="H3">
-        <v>53.6</v>
+        <v>69.3</v>
       </c>
       <c r="I3">
-        <v>51.4</v>
+        <v>52.7</v>
       </c>
       <c r="J3">
-        <v>75.099999999999994</v>
+        <v>81.5</v>
       </c>
       <c r="K3">
-        <v>57.5</v>
+        <v>87.8</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M3">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -1070,40 +1091,40 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>41.1</v>
+        <v>31.6</v>
       </c>
       <c r="C4">
-        <v>24.8</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="D4">
-        <v>22.9</v>
+        <v>28.9</v>
       </c>
       <c r="E4">
-        <v>86.5</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="F4">
-        <v>86.9</v>
+        <v>48.7</v>
       </c>
       <c r="G4">
-        <v>85.1</v>
+        <v>18.7</v>
       </c>
       <c r="H4">
-        <v>41.6</v>
+        <v>61.6</v>
       </c>
       <c r="I4">
-        <v>53.9</v>
+        <v>49.9</v>
       </c>
       <c r="J4">
-        <v>58.9</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="K4">
-        <v>64.8</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="L4">
         <v>30</v>
       </c>
       <c r="M4">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -1111,40 +1132,40 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>34.6</v>
+        <v>35.9</v>
       </c>
       <c r="C5">
-        <v>56.8</v>
+        <v>26.6</v>
       </c>
       <c r="D5">
-        <v>42.8</v>
+        <v>20.5</v>
       </c>
       <c r="E5">
-        <v>66.900000000000006</v>
+        <v>83.9</v>
       </c>
       <c r="F5">
-        <v>53.9</v>
+        <v>80.7</v>
       </c>
       <c r="G5">
-        <v>33.6</v>
+        <v>58.2</v>
       </c>
       <c r="H5">
-        <v>55.5</v>
+        <v>55.7</v>
       </c>
       <c r="I5">
-        <v>55.1</v>
+        <v>58.8</v>
       </c>
       <c r="J5">
-        <v>36.5</v>
+        <v>55.4</v>
       </c>
       <c r="K5">
         <v>61.2</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -1152,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>50.3</v>
+        <v>47.8</v>
       </c>
       <c r="C6">
-        <v>31.5</v>
+        <v>44.5</v>
       </c>
       <c r="D6">
-        <v>51.6</v>
+        <v>33.5</v>
       </c>
       <c r="E6">
-        <v>87.5</v>
+        <v>69.3</v>
       </c>
       <c r="F6">
-        <v>76.3</v>
+        <v>49.5</v>
       </c>
       <c r="G6">
-        <v>71.400000000000006</v>
+        <v>33</v>
       </c>
       <c r="H6">
-        <v>64.900000000000006</v>
+        <v>56.4</v>
       </c>
       <c r="I6">
-        <v>58.7</v>
+        <v>46.9</v>
       </c>
       <c r="J6">
-        <v>70.5</v>
+        <v>60.2</v>
       </c>
       <c r="K6">
-        <v>73.599999999999994</v>
+        <v>70</v>
       </c>
       <c r="L6">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -1193,40 +1214,40 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>90.7</v>
+        <v>57.2</v>
       </c>
       <c r="C7">
-        <v>94.9</v>
+        <v>46.3</v>
       </c>
       <c r="D7">
-        <v>83.2</v>
+        <v>38.6</v>
       </c>
       <c r="E7">
-        <v>63.1</v>
+        <v>84.7</v>
       </c>
       <c r="F7">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="G7">
-        <v>24.8</v>
+        <v>53</v>
       </c>
       <c r="H7">
-        <v>88.3</v>
+        <v>78.3</v>
       </c>
       <c r="I7">
-        <v>64.7</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="J7">
-        <v>80.5</v>
+        <v>77.8</v>
       </c>
       <c r="K7">
-        <v>89.8</v>
+        <v>80.8</v>
       </c>
       <c r="L7">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M7">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -1234,40 +1255,40 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>97</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="C8">
-        <v>95.2</v>
+        <v>86.5</v>
       </c>
       <c r="D8">
-        <v>80.900000000000006</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="E8">
-        <v>45.7</v>
+        <v>62.8</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>60.1</v>
       </c>
       <c r="G8">
-        <v>54.5</v>
+        <v>86.2</v>
       </c>
       <c r="H8">
-        <v>78.5</v>
+        <v>88.3</v>
       </c>
       <c r="I8">
-        <v>78.8</v>
+        <v>84.1</v>
       </c>
       <c r="J8">
-        <v>80.400000000000006</v>
+        <v>86.6</v>
       </c>
       <c r="K8">
-        <v>78.599999999999994</v>
+        <v>87.6</v>
       </c>
       <c r="L8">
         <v>80</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -1275,40 +1296,40 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>51.7</v>
+        <v>84.2</v>
       </c>
       <c r="C9">
-        <v>15.9</v>
+        <v>71.3</v>
       </c>
       <c r="D9">
-        <v>26.9</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="E9">
-        <v>87.3</v>
+        <v>50.5</v>
       </c>
       <c r="F9">
-        <v>63</v>
+        <v>24.5</v>
       </c>
       <c r="G9">
-        <v>98.6</v>
+        <v>85.5</v>
       </c>
       <c r="H9">
-        <v>68.3</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="I9">
-        <v>55.8</v>
+        <v>68.7</v>
       </c>
       <c r="J9">
-        <v>70.3</v>
+        <v>81.5</v>
       </c>
       <c r="K9">
-        <v>68.599999999999994</v>
+        <v>86</v>
       </c>
       <c r="L9">
+        <v>90</v>
+      </c>
+      <c r="M9">
         <v>70</v>
-      </c>
-      <c r="M9">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -1316,40 +1337,40 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>65.400000000000006</v>
+        <v>59.1</v>
       </c>
       <c r="C10">
-        <v>28.1</v>
+        <v>53.1</v>
       </c>
       <c r="D10">
-        <v>40.4</v>
+        <v>44.7</v>
       </c>
       <c r="E10">
-        <v>99.9</v>
+        <v>87.5</v>
       </c>
       <c r="F10">
-        <v>66.3</v>
+        <v>59.5</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>89.4</v>
       </c>
       <c r="H10">
-        <v>64</v>
+        <v>69.5</v>
       </c>
       <c r="I10">
-        <v>53.6</v>
+        <v>63.9</v>
       </c>
       <c r="J10">
-        <v>83.5</v>
+        <v>63</v>
       </c>
       <c r="K10">
-        <v>84.2</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="L10">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="M10">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -1357,40 +1378,40 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>36.799999999999997</v>
+        <v>42.2</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>46.9</v>
       </c>
       <c r="D11">
-        <v>22.5</v>
+        <v>43.7</v>
       </c>
       <c r="E11">
-        <v>82.1</v>
+        <v>97.3</v>
       </c>
       <c r="F11">
-        <v>94.7</v>
+        <v>86.8</v>
       </c>
       <c r="G11">
-        <v>63.4</v>
+        <v>65.7</v>
       </c>
       <c r="H11">
-        <v>56.7</v>
+        <v>68.5</v>
       </c>
       <c r="I11">
-        <v>46.8</v>
+        <v>67.5</v>
       </c>
       <c r="J11">
-        <v>70.099999999999994</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="K11">
-        <v>62</v>
+        <v>47.8</v>
       </c>
       <c r="L11">
         <v>50</v>
       </c>
       <c r="M11">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -1398,40 +1419,40 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>71.900000000000006</v>
+        <v>63.5</v>
       </c>
       <c r="C12">
-        <v>86.9</v>
+        <v>50.7</v>
       </c>
       <c r="D12">
-        <v>68.400000000000006</v>
+        <v>53.6</v>
       </c>
       <c r="E12">
-        <v>79.2</v>
+        <v>99.7</v>
       </c>
       <c r="F12">
-        <v>69.7</v>
+        <v>62.7</v>
       </c>
       <c r="G12">
-        <v>73.900000000000006</v>
+        <v>3.7</v>
       </c>
       <c r="H12">
-        <v>68.5</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="I12">
-        <v>62.6</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="J12">
-        <v>78.8</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="K12">
-        <v>57.6</v>
+        <v>83.8</v>
       </c>
       <c r="L12">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M12">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -1439,40 +1460,40 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>31.2</v>
+        <v>36.1</v>
       </c>
       <c r="C13">
-        <v>11.1</v>
+        <v>34.5</v>
       </c>
       <c r="D13">
-        <v>38.9</v>
+        <v>24.4</v>
       </c>
       <c r="E13">
-        <v>89.9</v>
+        <v>72.7</v>
       </c>
       <c r="F13">
-        <v>57.8</v>
+        <v>94.5</v>
       </c>
       <c r="G13">
-        <v>94.3</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="H13">
-        <v>53.7</v>
+        <v>50.9</v>
       </c>
       <c r="I13">
-        <v>47.1</v>
+        <v>68.2</v>
       </c>
       <c r="J13">
-        <v>66.900000000000006</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="K13">
-        <v>70.8</v>
+        <v>63.6</v>
       </c>
       <c r="L13">
+        <v>45</v>
+      </c>
+      <c r="M13">
         <v>30</v>
-      </c>
-      <c r="M13">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -1480,40 +1501,40 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>92</v>
+        <v>52.9</v>
       </c>
       <c r="C14">
-        <v>91.4</v>
+        <v>59.9</v>
       </c>
       <c r="D14">
-        <v>81.3</v>
+        <v>53.8</v>
       </c>
       <c r="E14">
-        <v>50.2</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="F14">
-        <v>8.1</v>
+        <v>65</v>
       </c>
       <c r="G14">
-        <v>31.5</v>
+        <v>79.5</v>
       </c>
       <c r="H14">
-        <v>79</v>
+        <v>69.8</v>
       </c>
       <c r="I14">
-        <v>57.8</v>
+        <v>59.9</v>
       </c>
       <c r="J14">
-        <v>80.3</v>
+        <v>78.3</v>
       </c>
       <c r="K14">
-        <v>78.599999999999994</v>
+        <v>56.6</v>
       </c>
       <c r="L14">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="M14">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -1521,40 +1542,40 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>34.1</v>
+        <v>55.2</v>
       </c>
       <c r="C15">
-        <v>71</v>
+        <v>51.7</v>
       </c>
       <c r="D15">
-        <v>41.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="E15">
-        <v>80.7</v>
+        <v>89.4</v>
       </c>
       <c r="F15">
-        <v>76.599999999999994</v>
+        <v>41.3</v>
       </c>
       <c r="G15">
-        <v>60.4</v>
+        <v>85.4</v>
       </c>
       <c r="H15">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="I15">
-        <v>60.7</v>
+        <v>75.3</v>
       </c>
       <c r="J15">
-        <v>75.599999999999994</v>
+        <v>67</v>
       </c>
       <c r="K15">
-        <v>52.2</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="L15">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -1562,40 +1583,40 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>43.2</v>
+        <v>81.3</v>
       </c>
       <c r="C16">
-        <v>48.2</v>
+        <v>61.6</v>
       </c>
       <c r="D16">
-        <v>43.6</v>
+        <v>72.5</v>
       </c>
       <c r="E16">
-        <v>69.599999999999994</v>
+        <v>47.1</v>
       </c>
       <c r="F16">
-        <v>90.4</v>
+        <v>15.2</v>
       </c>
       <c r="G16">
-        <v>73.8</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="H16">
-        <v>47</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="I16">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J16">
-        <v>81.099999999999994</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="K16">
-        <v>60.8</v>
+        <v>86</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -1603,40 +1624,40 @@
         <v>27</v>
       </c>
       <c r="B17">
-        <v>66.900000000000006</v>
+        <v>41.7</v>
       </c>
       <c r="C17">
-        <v>61.6</v>
+        <v>46.9</v>
       </c>
       <c r="D17">
-        <v>72.3</v>
+        <v>27.2</v>
       </c>
       <c r="E17">
-        <v>84</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="F17">
-        <v>72.2</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="G17">
+        <v>39.1</v>
+      </c>
+      <c r="H17">
+        <v>61.8</v>
+      </c>
+      <c r="I17">
+        <v>54.8</v>
+      </c>
+      <c r="J17">
         <v>78.7</v>
       </c>
-      <c r="H17">
-        <v>63</v>
-      </c>
-      <c r="I17">
-        <v>56.6</v>
-      </c>
-      <c r="J17">
-        <v>65.599999999999994</v>
-      </c>
       <c r="K17">
-        <v>37.6</v>
+        <v>64</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -1644,40 +1665,40 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <v>21.1</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C18">
-        <v>28.4</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="D18">
-        <v>27.7</v>
+        <v>28.1</v>
       </c>
       <c r="E18">
-        <v>87.1</v>
+        <v>69.3</v>
       </c>
       <c r="F18">
-        <v>60.8</v>
+        <v>83.4</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>27.9</v>
       </c>
       <c r="H18">
-        <v>55.1</v>
+        <v>62.4</v>
       </c>
       <c r="I18">
-        <v>44.9</v>
+        <v>53.8</v>
       </c>
       <c r="J18">
-        <v>74</v>
+        <v>86.4</v>
       </c>
       <c r="K18">
-        <v>60</v>
+        <v>61.8</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -1685,40 +1706,40 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>48.2</v>
+        <v>62.5</v>
       </c>
       <c r="C19">
-        <v>34.299999999999997</v>
+        <v>55.4</v>
       </c>
       <c r="D19">
-        <v>33.1</v>
+        <v>54.5</v>
       </c>
       <c r="E19">
-        <v>93.2</v>
+        <v>83</v>
       </c>
       <c r="F19">
-        <v>46.6</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="G19">
-        <v>96.3</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="H19">
-        <v>67</v>
+        <v>68.7</v>
       </c>
       <c r="I19">
-        <v>60.6</v>
+        <v>79.5</v>
       </c>
       <c r="J19">
-        <v>81.900000000000006</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="K19">
-        <v>68</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="L19">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -1726,40 +1747,40 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <v>72.8</v>
+        <v>20.5</v>
       </c>
       <c r="C20">
-        <v>68.2</v>
+        <v>12.3</v>
       </c>
       <c r="D20">
-        <v>58.6</v>
+        <v>19.7</v>
       </c>
       <c r="E20">
-        <v>87.3</v>
+        <v>82.4</v>
       </c>
       <c r="F20">
-        <v>61.1</v>
+        <v>49.3</v>
       </c>
       <c r="G20">
-        <v>19.2</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="H20">
-        <v>65.2</v>
+        <v>58.8</v>
       </c>
       <c r="I20">
-        <v>62.3</v>
+        <v>52.9</v>
       </c>
       <c r="J20">
-        <v>70.599999999999994</v>
+        <v>68.8</v>
       </c>
       <c r="K20">
-        <v>78.599999999999994</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="L20">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -1767,40 +1788,40 @@
         <v>31</v>
       </c>
       <c r="B21">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="C21">
+        <v>37.9</v>
+      </c>
+      <c r="D21">
+        <v>30.2</v>
+      </c>
+      <c r="E21">
+        <v>84.3</v>
+      </c>
+      <c r="F21">
+        <v>46.1</v>
+      </c>
+      <c r="G21">
+        <v>96.6</v>
+      </c>
+      <c r="H21">
         <v>49.7</v>
       </c>
-      <c r="C21">
-        <v>55.3</v>
-      </c>
-      <c r="D21">
-        <v>39.1</v>
-      </c>
-      <c r="E21">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="F21">
-        <v>55</v>
-      </c>
-      <c r="G21">
-        <v>2.7</v>
-      </c>
-      <c r="H21">
-        <v>63.6</v>
-      </c>
       <c r="I21">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="J21">
-        <v>73.7</v>
+        <v>83.1</v>
       </c>
       <c r="K21">
+        <v>82.6</v>
+      </c>
+      <c r="L21">
         <v>65</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>60</v>
-      </c>
-      <c r="M21">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -1808,40 +1829,40 @@
         <v>32</v>
       </c>
       <c r="B22">
-        <v>69.099999999999994</v>
+        <v>58.1</v>
       </c>
       <c r="C22">
-        <v>51.9</v>
+        <v>45.7</v>
       </c>
       <c r="D22">
-        <v>61.9</v>
+        <v>52.4</v>
       </c>
       <c r="E22">
-        <v>96.3</v>
+        <v>82.7</v>
       </c>
       <c r="F22">
-        <v>70</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="G22">
-        <v>20</v>
+        <v>94.6</v>
       </c>
       <c r="H22">
-        <v>72.400000000000006</v>
+        <v>68.7</v>
       </c>
       <c r="I22">
-        <v>75.2</v>
+        <v>68.2</v>
       </c>
       <c r="J22">
-        <v>71.8</v>
+        <v>78.8</v>
       </c>
       <c r="K22">
-        <v>84.4</v>
+        <v>83.8</v>
       </c>
       <c r="L22">
         <v>65</v>
       </c>
       <c r="M22">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -1849,40 +1870,40 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>75.3</v>
+        <v>57.3</v>
       </c>
       <c r="C23">
-        <v>57.1</v>
+        <v>51.7</v>
       </c>
       <c r="D23">
-        <v>43.9</v>
+        <v>28.1</v>
       </c>
       <c r="E23">
-        <v>93.7</v>
+        <v>70.5</v>
       </c>
       <c r="F23">
-        <v>56.5</v>
+        <v>55.2</v>
       </c>
       <c r="G23">
-        <v>90.5</v>
+        <v>5.9</v>
       </c>
       <c r="H23">
-        <v>71.8</v>
+        <v>57.9</v>
       </c>
       <c r="I23">
-        <v>63.8</v>
+        <v>51.9</v>
       </c>
       <c r="J23">
-        <v>80.2</v>
+        <v>75.5</v>
       </c>
       <c r="K23">
-        <v>78.599999999999994</v>
+        <v>69</v>
       </c>
       <c r="L23">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M23">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -1890,40 +1911,40 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>38.200000000000003</v>
+        <v>64</v>
       </c>
       <c r="C24">
-        <v>36.9</v>
+        <v>56</v>
       </c>
       <c r="D24">
-        <v>42.7</v>
+        <v>43.7</v>
       </c>
       <c r="E24">
-        <v>81.5</v>
+        <v>90.7</v>
       </c>
       <c r="F24">
-        <v>80.599999999999994</v>
+        <v>59.9</v>
       </c>
       <c r="G24">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="H24">
-        <v>41.1</v>
+        <v>80.2</v>
       </c>
       <c r="I24">
-        <v>61.8</v>
+        <v>90.8</v>
       </c>
       <c r="J24">
-        <v>73.5</v>
+        <v>76.5</v>
       </c>
       <c r="K24">
-        <v>61.2</v>
+        <v>84</v>
       </c>
       <c r="L24">
         <v>65</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -1931,40 +1952,40 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>21.5</v>
+        <v>62.5</v>
       </c>
       <c r="C25">
-        <v>9.5</v>
+        <v>41.9</v>
       </c>
       <c r="D25">
-        <v>29.3</v>
+        <v>35.1</v>
       </c>
       <c r="E25">
-        <v>88.5</v>
+        <v>90.2</v>
       </c>
       <c r="F25">
-        <v>86.4</v>
+        <v>63.9</v>
       </c>
       <c r="G25">
-        <v>38.799999999999997</v>
+        <v>98.8</v>
       </c>
       <c r="H25">
-        <v>42.1</v>
+        <v>62.7</v>
       </c>
       <c r="I25">
-        <v>45.6</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="J25">
-        <v>76.400000000000006</v>
+        <v>88</v>
       </c>
       <c r="K25">
-        <v>69.400000000000006</v>
+        <v>86</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -1972,160 +1993,160 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>19.8</v>
+        <v>49.1</v>
       </c>
       <c r="C26">
-        <v>7.6</v>
+        <v>42.9</v>
       </c>
       <c r="D26">
-        <v>12.5</v>
+        <v>36.6</v>
       </c>
       <c r="E26">
-        <v>76</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="F26">
-        <v>75.599999999999994</v>
+        <v>80</v>
       </c>
       <c r="G26">
-        <v>38.6</v>
+        <v>61.8</v>
       </c>
       <c r="H26">
-        <v>30.6</v>
+        <v>51.6</v>
       </c>
       <c r="I26">
-        <v>41.8</v>
+        <v>52.3</v>
       </c>
       <c r="J26">
-        <v>67.8</v>
+        <v>86.2</v>
       </c>
       <c r="K26">
-        <v>52.8</v>
+        <v>65.2</v>
       </c>
       <c r="L26">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27">
-        <v>65</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="C27">
-        <v>76.7</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="D27">
-        <v>60.8</v>
+        <v>30.6</v>
       </c>
       <c r="E27">
-        <v>83.2</v>
+        <v>86.6</v>
       </c>
       <c r="F27">
-        <v>71.7</v>
+        <v>85.4</v>
       </c>
       <c r="G27">
-        <v>22</v>
+        <v>78.3</v>
       </c>
       <c r="H27">
-        <v>67.5</v>
+        <v>52.8</v>
       </c>
       <c r="I27">
-        <v>51.9</v>
+        <v>65.7</v>
       </c>
       <c r="J27">
-        <v>82.3</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="K27">
-        <v>68</v>
+        <v>70.8</v>
       </c>
       <c r="L27">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>40.799999999999997</v>
+        <v>20.6</v>
       </c>
       <c r="C28">
-        <v>22.3</v>
+        <v>31</v>
       </c>
       <c r="D28">
-        <v>14.5</v>
+        <v>26.2</v>
       </c>
       <c r="E28">
-        <v>87.9</v>
+        <v>74</v>
       </c>
       <c r="F28">
-        <v>78.7</v>
+        <v>83.3</v>
       </c>
       <c r="G28">
-        <v>90.1</v>
+        <v>23.3</v>
       </c>
       <c r="H28">
-        <v>54.4</v>
+        <v>50.3</v>
       </c>
       <c r="I28">
-        <v>47.9</v>
+        <v>67.5</v>
       </c>
       <c r="J28">
-        <v>74.3</v>
+        <v>62.2</v>
       </c>
       <c r="K28">
-        <v>66.8</v>
+        <v>68.2</v>
       </c>
       <c r="L28">
         <v>50</v>
       </c>
       <c r="M28">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>38.4</v>
+        <v>37.4</v>
       </c>
       <c r="C29">
-        <v>10.3</v>
+        <v>27.6</v>
       </c>
       <c r="D29">
-        <v>21.1</v>
+        <v>16.7</v>
       </c>
       <c r="E29">
-        <v>72.3</v>
+        <v>89.7</v>
       </c>
       <c r="F29">
-        <v>91.1</v>
+        <v>85.9</v>
       </c>
       <c r="G29">
-        <v>82.1</v>
+        <v>89.1</v>
       </c>
       <c r="H29">
-        <v>47.2</v>
+        <v>29.9</v>
       </c>
       <c r="I29">
-        <v>46.7</v>
+        <v>63</v>
       </c>
       <c r="J29">
-        <v>80.3</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="K29">
-        <v>53.6</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M29">
         <v>50</v>
@@ -2133,43 +2154,43 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>88.5</v>
+        <v>42.5</v>
       </c>
       <c r="C30">
-        <v>95.1</v>
+        <v>31.3</v>
       </c>
       <c r="D30">
-        <v>83.1</v>
+        <v>25.5</v>
       </c>
       <c r="E30">
-        <v>75</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="F30">
-        <v>35</v>
+        <v>87.5</v>
       </c>
       <c r="G30">
-        <v>32.200000000000003</v>
+        <v>58.4</v>
       </c>
       <c r="H30">
-        <v>87.9</v>
+        <v>44.4</v>
       </c>
       <c r="I30">
-        <v>69</v>
+        <v>47.8</v>
       </c>
       <c r="J30">
-        <v>74.8</v>
+        <v>84</v>
       </c>
       <c r="K30">
-        <v>83.4</v>
+        <v>53.4</v>
       </c>
       <c r="L30">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -2177,40 +2198,40 @@
         <v>41</v>
       </c>
       <c r="B31">
-        <v>6.9</v>
+        <v>87</v>
       </c>
       <c r="C31">
-        <v>4.5999999999999996</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="D31">
-        <v>16.899999999999999</v>
+        <v>84.6</v>
       </c>
       <c r="E31">
-        <v>65.400000000000006</v>
+        <v>76.8</v>
       </c>
       <c r="F31">
-        <v>87.3</v>
+        <v>51.3</v>
       </c>
       <c r="G31">
-        <v>84.2</v>
+        <v>83.1</v>
       </c>
       <c r="H31">
-        <v>26.5</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="I31">
-        <v>39.799999999999997</v>
+        <v>73.7</v>
       </c>
       <c r="J31">
-        <v>73.5</v>
+        <v>77.2</v>
       </c>
       <c r="K31">
-        <v>45</v>
+        <v>86.8</v>
       </c>
       <c r="L31">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -2218,40 +2239,40 @@
         <v>42</v>
       </c>
       <c r="B32">
-        <v>28.2</v>
+        <v>44.1</v>
       </c>
       <c r="C32">
-        <v>14.5</v>
+        <v>49</v>
       </c>
       <c r="D32">
-        <v>12.6</v>
+        <v>43.7</v>
       </c>
       <c r="E32">
-        <v>78.099999999999994</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="F32">
-        <v>91</v>
+        <v>71.2</v>
       </c>
       <c r="G32">
-        <v>93.7</v>
+        <v>59.7</v>
       </c>
       <c r="H32">
-        <v>28.4</v>
+        <v>65.2</v>
       </c>
       <c r="I32">
-        <v>53.4</v>
+        <v>55.7</v>
       </c>
       <c r="J32">
-        <v>76.8</v>
+        <v>84.1</v>
       </c>
       <c r="K32">
-        <v>47.3</v>
+        <v>68.2</v>
       </c>
       <c r="L32">
+        <v>80</v>
+      </c>
+      <c r="M32">
         <v>60</v>
-      </c>
-      <c r="M32">
-        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -2259,40 +2280,40 @@
         <v>43</v>
       </c>
       <c r="B33">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="C33">
+        <v>29.6</v>
+      </c>
+      <c r="D33">
+        <v>23.2</v>
+      </c>
+      <c r="E33">
+        <v>65.2</v>
+      </c>
+      <c r="F33">
+        <v>94.2</v>
+      </c>
+      <c r="G33">
+        <v>94.3</v>
+      </c>
+      <c r="H33">
+        <v>24.2</v>
+      </c>
+      <c r="I33">
+        <v>40.1</v>
+      </c>
+      <c r="J33">
         <v>72.3</v>
       </c>
-      <c r="C33">
-        <v>88.7</v>
-      </c>
-      <c r="D33">
-        <v>71.8</v>
-      </c>
-      <c r="E33">
-        <v>73</v>
-      </c>
-      <c r="F33">
-        <v>73.5</v>
-      </c>
-      <c r="G33">
-        <v>43.8</v>
-      </c>
-      <c r="H33">
-        <v>75.7</v>
-      </c>
-      <c r="I33">
-        <v>59.4</v>
-      </c>
-      <c r="J33">
-        <v>77.400000000000006</v>
-      </c>
       <c r="K33">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="L33">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="M33">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -2300,40 +2321,40 @@
         <v>44</v>
       </c>
       <c r="B34">
-        <v>45.3</v>
+        <v>26.7</v>
       </c>
       <c r="C34">
-        <v>38.200000000000003</v>
+        <v>24.6</v>
       </c>
       <c r="D34">
-        <v>42</v>
+        <v>23.2</v>
       </c>
       <c r="E34">
-        <v>69.5</v>
+        <v>46.1</v>
       </c>
       <c r="F34">
-        <v>65.099999999999994</v>
+        <v>92.4</v>
       </c>
       <c r="G34">
-        <v>9.8000000000000007</v>
+        <v>85.2</v>
       </c>
       <c r="H34">
-        <v>68.3</v>
+        <v>28.1</v>
       </c>
       <c r="I34">
-        <v>55.2</v>
+        <v>43.2</v>
       </c>
       <c r="J34">
-        <v>72.5</v>
+        <v>82.3</v>
       </c>
       <c r="K34">
-        <v>73.599999999999994</v>
+        <v>47.2</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -2341,37 +2362,37 @@
         <v>45</v>
       </c>
       <c r="B35">
-        <v>44.9</v>
+        <v>68.7</v>
       </c>
       <c r="C35">
-        <v>58.7</v>
+        <v>56.3</v>
       </c>
       <c r="D35">
-        <v>41.4</v>
+        <v>62.3</v>
       </c>
       <c r="E35">
-        <v>69</v>
+        <v>77.3</v>
       </c>
       <c r="F35">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G35">
-        <v>38.5</v>
+        <v>89</v>
       </c>
       <c r="H35">
-        <v>72.2</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="I35">
-        <v>61.7</v>
+        <v>65</v>
       </c>
       <c r="J35">
-        <v>78.599999999999994</v>
+        <v>84.5</v>
       </c>
       <c r="K35">
-        <v>75.8</v>
+        <v>88.8</v>
       </c>
       <c r="L35">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M35">
         <v>70</v>
@@ -2382,40 +2403,40 @@
         <v>46</v>
       </c>
       <c r="B36">
-        <v>24.5</v>
+        <v>49.9</v>
       </c>
       <c r="C36">
-        <v>21.8</v>
+        <v>75.2</v>
       </c>
       <c r="D36">
-        <v>19.5</v>
+        <v>49.1</v>
       </c>
       <c r="E36">
-        <v>65.400000000000006</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="F36">
-        <v>88.5</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="G36">
-        <v>88.5</v>
+        <v>76</v>
       </c>
       <c r="H36">
-        <v>48.6</v>
+        <v>56.2</v>
       </c>
       <c r="I36">
-        <v>55.6</v>
+        <v>64.2</v>
       </c>
       <c r="J36">
-        <v>84.9</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="K36">
-        <v>69.599999999999994</v>
+        <v>73</v>
       </c>
       <c r="L36">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -2423,40 +2444,40 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>14.4</v>
+        <v>59.2</v>
       </c>
       <c r="C37">
-        <v>12.9</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="D37">
-        <v>11.8</v>
+        <v>33.5</v>
       </c>
       <c r="E37">
-        <v>74.400000000000006</v>
+        <v>74.3</v>
       </c>
       <c r="F37">
-        <v>95.2</v>
+        <v>75</v>
       </c>
       <c r="G37">
-        <v>96</v>
+        <v>79.2</v>
       </c>
       <c r="H37">
-        <v>31.7</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="I37">
-        <v>54.4</v>
+        <v>78.5</v>
       </c>
       <c r="J37">
-        <v>65.8</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="K37">
-        <v>68.2</v>
+        <v>76</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -2464,37 +2485,37 @@
         <v>48</v>
       </c>
       <c r="B38">
-        <v>30</v>
+        <v>36.5</v>
       </c>
       <c r="C38">
-        <v>14.5</v>
+        <v>29.6</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>24.4</v>
       </c>
       <c r="E38">
-        <v>75.5</v>
+        <v>63.9</v>
       </c>
       <c r="F38">
-        <v>84.7</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="G38">
-        <v>80</v>
+        <v>91.7</v>
       </c>
       <c r="H38">
-        <v>32.4</v>
+        <v>57.2</v>
       </c>
       <c r="I38">
-        <v>43.6</v>
+        <v>60.3</v>
       </c>
       <c r="J38">
-        <v>81.8</v>
+        <v>82.8</v>
       </c>
       <c r="K38">
-        <v>56.4</v>
+        <v>70</v>
       </c>
       <c r="L38">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M38">
         <v>30</v>
@@ -2505,40 +2526,40 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>66</v>
+        <v>25.3</v>
       </c>
       <c r="C39">
-        <v>76.7</v>
+        <v>30.7</v>
       </c>
       <c r="D39">
-        <v>63.3</v>
+        <v>26.2</v>
       </c>
       <c r="E39">
-        <v>79.5</v>
+        <v>73.8</v>
       </c>
       <c r="F39">
-        <v>85.9</v>
+        <v>93.9</v>
       </c>
       <c r="G39">
-        <v>17.399999999999999</v>
+        <v>96.9</v>
       </c>
       <c r="H39">
-        <v>73.8</v>
+        <v>53.2</v>
       </c>
       <c r="I39">
-        <v>58.1</v>
+        <v>41.9</v>
       </c>
       <c r="J39">
-        <v>82.2</v>
+        <v>49.1</v>
       </c>
       <c r="K39">
-        <v>74.599999999999994</v>
+        <v>62.6</v>
       </c>
       <c r="L39">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
@@ -2546,40 +2567,40 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>44.4</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="C40">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="D40">
-        <v>33.6</v>
+        <v>25.3</v>
       </c>
       <c r="E40">
-        <v>79</v>
+        <v>59.5</v>
       </c>
       <c r="F40">
-        <v>88.5</v>
+        <v>40.6</v>
       </c>
       <c r="G40">
-        <v>65.3</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>60.6</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="I40">
-        <v>56.4</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="J40">
-        <v>68.3</v>
+        <v>82.6</v>
       </c>
       <c r="K40">
-        <v>73.599999999999994</v>
+        <v>56.8</v>
       </c>
       <c r="L40">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M40">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -2587,40 +2608,40 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>79.5</v>
+        <v>58.3</v>
       </c>
       <c r="C41">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>54.5</v>
+      </c>
+      <c r="E41">
+        <v>79.2</v>
+      </c>
+      <c r="F41">
+        <v>88.4</v>
+      </c>
+      <c r="G41">
+        <v>42.5</v>
+      </c>
+      <c r="H41">
+        <v>67.2</v>
+      </c>
+      <c r="I41">
+        <v>55.2</v>
+      </c>
+      <c r="J41">
+        <v>83.2</v>
+      </c>
+      <c r="K41">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="L41">
         <v>70</v>
       </c>
-      <c r="D41">
-        <v>50.7</v>
-      </c>
-      <c r="E41">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="F41">
-        <v>25.1</v>
-      </c>
-      <c r="G41">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="H41">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="I41">
-        <v>58.3</v>
-      </c>
-      <c r="J41">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="K41">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="L41">
-        <v>75</v>
-      </c>
       <c r="M41">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -2628,40 +2649,40 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>83</v>
+        <v>40.9</v>
       </c>
       <c r="C42">
-        <v>89.7</v>
+        <v>47.8</v>
       </c>
       <c r="D42">
-        <v>58.8</v>
+        <v>38.1</v>
       </c>
       <c r="E42">
-        <v>80.8</v>
+        <v>77.5</v>
       </c>
       <c r="F42">
-        <v>45.8</v>
+        <v>83.9</v>
       </c>
       <c r="G42">
-        <v>73.3</v>
+        <v>74.3</v>
       </c>
       <c r="H42">
-        <v>74.900000000000006</v>
+        <v>61</v>
       </c>
       <c r="I42">
-        <v>66.5</v>
+        <v>52.5</v>
       </c>
       <c r="J42">
-        <v>81.5</v>
+        <v>74.2</v>
       </c>
       <c r="K42">
-        <v>78.599999999999994</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="L42">
         <v>75</v>
       </c>
       <c r="M42">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -2669,40 +2690,40 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>88.5</v>
+        <v>66</v>
       </c>
       <c r="C43">
-        <v>81.900000000000006</v>
+        <v>42.9</v>
       </c>
       <c r="D43">
-        <v>60.3</v>
+        <v>38.6</v>
       </c>
       <c r="E43">
-        <v>79.3</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="F43">
-        <v>39.5</v>
+        <v>33.4</v>
       </c>
       <c r="G43">
-        <v>73.5</v>
+        <v>85.4</v>
       </c>
       <c r="H43">
-        <v>76.900000000000006</v>
+        <v>60.7</v>
       </c>
       <c r="I43">
-        <v>56.1</v>
+        <v>44</v>
       </c>
       <c r="J43">
-        <v>78</v>
+        <v>78.5</v>
       </c>
       <c r="K43">
-        <v>78.599999999999994</v>
+        <v>86</v>
       </c>
       <c r="L43">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M43">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
@@ -2710,40 +2731,40 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>97.5</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="C44">
-        <v>88.5</v>
+        <v>48.1</v>
       </c>
       <c r="D44">
-        <v>100</v>
+        <v>43.7</v>
       </c>
       <c r="E44">
-        <v>42.1</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="F44">
-        <v>20.9</v>
+        <v>55.2</v>
       </c>
       <c r="G44">
-        <v>97.3</v>
+        <v>80.3</v>
       </c>
       <c r="H44">
-        <v>89</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="I44">
-        <v>64.8</v>
+        <v>59.5</v>
       </c>
       <c r="J44">
-        <v>82.4</v>
+        <v>84</v>
       </c>
       <c r="K44">
-        <v>78.599999999999994</v>
+        <v>86</v>
       </c>
       <c r="L44">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="M44">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
@@ -2751,40 +2772,40 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>31.5</v>
+        <v>74.8</v>
       </c>
       <c r="C45">
-        <v>28.2</v>
+        <v>47.6</v>
       </c>
       <c r="D45">
-        <v>27</v>
+        <v>52.1</v>
       </c>
       <c r="E45">
-        <v>83.6</v>
+        <v>82.6</v>
       </c>
       <c r="F45">
-        <v>82.2</v>
+        <v>52.1</v>
       </c>
       <c r="G45">
-        <v>89.3</v>
+        <v>97.6</v>
       </c>
       <c r="H45">
-        <v>48.3</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="I45">
-        <v>50.8</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="J45">
-        <v>72.2</v>
+        <v>81.5</v>
       </c>
       <c r="K45">
-        <v>49.9</v>
+        <v>86</v>
       </c>
       <c r="L45">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M45">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -2792,40 +2813,40 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>69.099999999999994</v>
+        <v>86.2</v>
       </c>
       <c r="C46">
-        <v>82.7</v>
+        <v>77.8</v>
       </c>
       <c r="D46">
-        <v>57.9</v>
+        <v>85.8</v>
       </c>
       <c r="E46">
-        <v>76.400000000000006</v>
+        <v>42</v>
       </c>
       <c r="F46">
-        <v>3.1</v>
+        <v>14.4</v>
       </c>
       <c r="G46">
-        <v>56.7</v>
+        <v>96.7</v>
       </c>
       <c r="H46">
-        <v>63.8</v>
+        <v>90.7</v>
       </c>
       <c r="I46">
-        <v>59.5</v>
+        <v>86.4</v>
       </c>
       <c r="J46">
-        <v>82.6</v>
+        <v>84.1</v>
       </c>
       <c r="K46">
-        <v>54.8</v>
+        <v>86</v>
       </c>
       <c r="L46">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M46">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -2833,40 +2854,40 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>55.1</v>
+        <v>29.7</v>
       </c>
       <c r="C47">
-        <v>56.6</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="D47">
-        <v>33.200000000000003</v>
+        <v>28.1</v>
       </c>
       <c r="E47">
-        <v>84.9</v>
+        <v>76.2</v>
       </c>
       <c r="F47">
-        <v>89.1</v>
+        <v>27.3</v>
       </c>
       <c r="G47">
-        <v>61.9</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="H47">
-        <v>72.099999999999994</v>
+        <v>54.7</v>
       </c>
       <c r="I47">
-        <v>53</v>
+        <v>60.4</v>
       </c>
       <c r="J47">
-        <v>68.8</v>
+        <v>72.7</v>
       </c>
       <c r="K47">
-        <v>67</v>
+        <v>50.4</v>
       </c>
       <c r="L47">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M47">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -2874,40 +2895,40 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>31.6</v>
+        <v>49.2</v>
       </c>
       <c r="C48">
-        <v>46.9</v>
+        <v>63.8</v>
       </c>
       <c r="D48">
-        <v>36.5</v>
+        <v>54.5</v>
       </c>
       <c r="E48">
-        <v>74.8</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="F48">
-        <v>60.3</v>
+        <v>53.5</v>
       </c>
       <c r="G48">
-        <v>66.400000000000006</v>
+        <v>84.7</v>
       </c>
       <c r="H48">
-        <v>64</v>
+        <v>70.7</v>
       </c>
       <c r="I48">
-        <v>56.5</v>
+        <v>60.4</v>
       </c>
       <c r="J48">
-        <v>82.2</v>
+        <v>85.7</v>
       </c>
       <c r="K48">
-        <v>65.599999999999994</v>
+        <v>68.2</v>
       </c>
       <c r="L48">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="M48">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
@@ -2915,40 +2936,40 @@
         <v>59</v>
       </c>
       <c r="B49">
-        <v>39.700000000000003</v>
+        <v>50.6</v>
       </c>
       <c r="C49">
-        <v>22.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="D49">
-        <v>27.9</v>
+        <v>23.2</v>
       </c>
       <c r="E49">
-        <v>86.7</v>
+        <v>84.6</v>
       </c>
       <c r="F49">
-        <v>79.400000000000006</v>
+        <v>90.3</v>
       </c>
       <c r="G49">
-        <v>4.0999999999999996</v>
+        <v>89.9</v>
       </c>
       <c r="H49">
-        <v>51.1</v>
+        <v>51.9</v>
       </c>
       <c r="I49">
-        <v>33.4</v>
+        <v>57.6</v>
       </c>
       <c r="J49">
-        <v>75</v>
+        <v>79.7</v>
       </c>
       <c r="K49">
-        <v>60.2</v>
+        <v>75.8</v>
       </c>
       <c r="L49">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M49">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
@@ -2956,40 +2977,40 @@
         <v>60</v>
       </c>
       <c r="B50">
-        <v>43</v>
+        <v>35.9</v>
       </c>
       <c r="C50">
-        <v>31.8</v>
+        <v>20.2</v>
       </c>
       <c r="D50">
-        <v>34.6</v>
+        <v>25.3</v>
       </c>
       <c r="E50">
-        <v>77.2</v>
+        <v>77</v>
       </c>
       <c r="F50">
-        <v>71.599999999999994</v>
+        <v>55.5</v>
       </c>
       <c r="G50">
-        <v>35.799999999999997</v>
+        <v>32.1</v>
       </c>
       <c r="H50">
-        <v>64.7</v>
+        <v>54.1</v>
       </c>
       <c r="I50">
-        <v>54.6</v>
+        <v>48.2</v>
       </c>
       <c r="J50">
-        <v>70.2</v>
+        <v>73.5</v>
       </c>
       <c r="K50">
-        <v>68.599999999999994</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="L50">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M50">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
@@ -2997,40 +3018,40 @@
         <v>61</v>
       </c>
       <c r="B51">
-        <v>21.6</v>
+        <v>37</v>
       </c>
       <c r="C51">
-        <v>8.3000000000000007</v>
+        <v>48.3</v>
       </c>
       <c r="D51">
-        <v>8.9</v>
+        <v>29.2</v>
       </c>
       <c r="E51">
-        <v>74.5</v>
+        <v>85.2</v>
       </c>
       <c r="F51">
-        <v>93.2</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="G51">
-        <v>96.3</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>33.5</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="I51">
-        <v>47.4</v>
+        <v>51.6</v>
       </c>
       <c r="J51">
-        <v>77.7</v>
+        <v>62.3</v>
       </c>
       <c r="K51">
-        <v>48.7</v>
+        <v>71.8</v>
       </c>
       <c r="L51">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M51">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
@@ -3038,40 +3059,40 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>9.6</v>
+        <v>37.6</v>
       </c>
       <c r="C52">
-        <v>5.2</v>
+        <v>29.1</v>
       </c>
       <c r="D52">
-        <v>12</v>
+        <v>23.4</v>
       </c>
       <c r="E52">
-        <v>80.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="F52">
-        <v>62.3</v>
+        <v>86.3</v>
       </c>
       <c r="G52">
-        <v>69</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="H52">
-        <v>31.3</v>
+        <v>57.2</v>
       </c>
       <c r="I52">
-        <v>51.2</v>
+        <v>53.1</v>
       </c>
       <c r="J52">
-        <v>64.599999999999994</v>
+        <v>79</v>
       </c>
       <c r="K52">
-        <v>68.400000000000006</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="M52">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
@@ -3079,40 +3100,40 @@
         <v>63</v>
       </c>
       <c r="B53">
-        <v>92.1</v>
+        <v>29.7</v>
       </c>
       <c r="C53">
-        <v>92.9</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="D53">
-        <v>83.2</v>
+        <v>15.8</v>
       </c>
       <c r="E53">
-        <v>80.099999999999994</v>
+        <v>71.3</v>
       </c>
       <c r="F53">
-        <v>47.5</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="G53">
-        <v>89</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="H53">
-        <v>79.400000000000006</v>
+        <v>37.6</v>
       </c>
       <c r="I53">
-        <v>61.9</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="J53">
-        <v>78.400000000000006</v>
+        <v>83.7</v>
       </c>
       <c r="K53">
-        <v>78.599999999999994</v>
+        <v>48.8</v>
       </c>
       <c r="L53">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="M53">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
@@ -3120,40 +3141,40 @@
         <v>64</v>
       </c>
       <c r="B54">
-        <v>45.9</v>
+        <v>35.5</v>
       </c>
       <c r="C54">
-        <v>36.6</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="D54">
-        <v>33</v>
+        <v>19.7</v>
       </c>
       <c r="E54">
-        <v>78.2</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="F54">
-        <v>68.5</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="G54">
-        <v>51.3</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>49.9</v>
+        <v>17.7</v>
       </c>
       <c r="I54">
-        <v>54.9</v>
+        <v>70</v>
       </c>
       <c r="J54">
-        <v>77.900000000000006</v>
+        <v>61</v>
       </c>
       <c r="K54">
-        <v>72.400000000000006</v>
+        <v>69.2</v>
       </c>
       <c r="L54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
@@ -3161,40 +3182,40 @@
         <v>65</v>
       </c>
       <c r="B55">
-        <v>30.4</v>
+        <v>81.5</v>
       </c>
       <c r="C55">
-        <v>21.2</v>
+        <v>76</v>
       </c>
       <c r="D55">
-        <v>34.5</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="E55">
-        <v>77.900000000000006</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="F55">
-        <v>93.7</v>
+        <v>51.1</v>
       </c>
       <c r="G55">
-        <v>82.8</v>
+        <v>99.8</v>
       </c>
       <c r="H55">
-        <v>39.299999999999997</v>
+        <v>75.3</v>
       </c>
       <c r="I55">
-        <v>39.1</v>
+        <v>57.2</v>
       </c>
       <c r="J55">
-        <v>53.8</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="K55">
-        <v>56.4</v>
+        <v>86</v>
       </c>
       <c r="L55">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="M55">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
@@ -3202,40 +3223,40 @@
         <v>66</v>
       </c>
       <c r="B56">
-        <v>58.1</v>
+        <v>41.7</v>
       </c>
       <c r="C56">
-        <v>45.6</v>
+        <v>42.9</v>
       </c>
       <c r="D56">
-        <v>55.4</v>
+        <v>35</v>
       </c>
       <c r="E56">
-        <v>89.3</v>
+        <v>74.8</v>
       </c>
       <c r="F56">
-        <v>69.400000000000006</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="G56">
-        <v>6.2</v>
+        <v>18.3</v>
       </c>
       <c r="H56">
-        <v>63</v>
+        <v>59.2</v>
       </c>
       <c r="I56">
-        <v>65.8</v>
+        <v>67.5</v>
       </c>
       <c r="J56">
-        <v>79</v>
+        <v>73.7</v>
       </c>
       <c r="K56">
-        <v>58.8</v>
+        <v>87.6</v>
       </c>
       <c r="L56">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M56">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
@@ -3243,40 +3264,40 @@
         <v>67</v>
       </c>
       <c r="B57">
-        <v>100</v>
+        <v>32.6</v>
       </c>
       <c r="C57">
-        <v>97.2</v>
+        <v>40.9</v>
       </c>
       <c r="D57">
-        <v>97.6</v>
+        <v>35.1</v>
       </c>
       <c r="E57">
-        <v>68.7</v>
+        <v>77.2</v>
       </c>
       <c r="F57">
-        <v>8.5</v>
+        <v>90.4</v>
       </c>
       <c r="G57">
-        <v>76.5</v>
+        <v>83.3</v>
       </c>
       <c r="H57">
-        <v>84.9</v>
+        <v>48.6</v>
       </c>
       <c r="I57">
-        <v>65.5</v>
+        <v>58</v>
       </c>
       <c r="J57">
-        <v>82.1</v>
+        <v>60.8</v>
       </c>
       <c r="K57">
-        <v>78.599999999999994</v>
+        <v>60.8</v>
       </c>
       <c r="L57">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="M57">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
@@ -3284,40 +3305,40 @@
         <v>68</v>
       </c>
       <c r="B58">
-        <v>93</v>
+        <v>67.3</v>
       </c>
       <c r="C58">
-        <v>83.9</v>
+        <v>42.9</v>
       </c>
       <c r="D58">
-        <v>75.5</v>
+        <v>23.4</v>
       </c>
       <c r="E58">
-        <v>52.9</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>71.7</v>
       </c>
       <c r="G58">
-        <v>20</v>
+        <v>82.4</v>
       </c>
       <c r="H58">
-        <v>78.2</v>
+        <v>63</v>
       </c>
       <c r="I58">
-        <v>59.2</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="J58">
-        <v>76.900000000000006</v>
+        <v>73.5</v>
       </c>
       <c r="K58">
-        <v>78.599999999999994</v>
+        <v>62.8</v>
       </c>
       <c r="L58">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="M58">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
@@ -3325,40 +3346,40 @@
         <v>69</v>
       </c>
       <c r="B59">
-        <v>27.2</v>
+        <v>89.6</v>
       </c>
       <c r="C59">
-        <v>18.2</v>
+        <v>81.2</v>
       </c>
       <c r="D59">
-        <v>25.6</v>
+        <v>92.5</v>
       </c>
       <c r="E59">
-        <v>77.3</v>
+        <v>66.8</v>
       </c>
       <c r="F59">
-        <v>90.4</v>
+        <v>7.2</v>
       </c>
       <c r="G59">
-        <v>90.7</v>
+        <v>86.4</v>
       </c>
       <c r="H59">
-        <v>50.1</v>
+        <v>89.4</v>
       </c>
       <c r="I59">
-        <v>55.4</v>
+        <v>50.3</v>
       </c>
       <c r="J59">
-        <v>83</v>
+        <v>84.8</v>
       </c>
       <c r="K59">
-        <v>55.1</v>
+        <v>86</v>
       </c>
       <c r="L59">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="M59">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
@@ -3366,40 +3387,40 @@
         <v>70</v>
       </c>
       <c r="B60">
-        <v>54.3</v>
+        <v>82.5</v>
       </c>
       <c r="C60">
-        <v>55.5</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="D60">
-        <v>62.9</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="E60">
-        <v>89.1</v>
+        <v>48.4</v>
       </c>
       <c r="F60">
+        <v>3.9</v>
+      </c>
+      <c r="G60">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="H60">
+        <v>81.2</v>
+      </c>
+      <c r="I60">
+        <v>45.2</v>
+      </c>
+      <c r="J60">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="K60">
+        <v>81</v>
+      </c>
+      <c r="L60">
+        <v>75</v>
+      </c>
+      <c r="M60">
         <v>70</v>
-      </c>
-      <c r="G60">
-        <v>43</v>
-      </c>
-      <c r="H60">
-        <v>69.8</v>
-      </c>
-      <c r="I60">
-        <v>62.1</v>
-      </c>
-      <c r="J60">
-        <v>72</v>
-      </c>
-      <c r="K60">
-        <v>86</v>
-      </c>
-      <c r="L60">
-        <v>80</v>
-      </c>
-      <c r="M60">
-        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
@@ -3407,40 +3428,40 @@
         <v>71</v>
       </c>
       <c r="B61">
-        <v>94.8</v>
+        <v>28.1</v>
       </c>
       <c r="C61">
-        <v>93.1</v>
+        <v>30.6</v>
       </c>
       <c r="D61">
-        <v>89.4</v>
+        <v>35.5</v>
       </c>
       <c r="E61">
-        <v>60.2</v>
+        <v>75.8</v>
       </c>
       <c r="F61">
-        <v>28.3</v>
+        <v>86.6</v>
       </c>
       <c r="G61">
-        <v>82.7</v>
+        <v>82.1</v>
       </c>
       <c r="H61">
-        <v>79.7</v>
+        <v>52.1</v>
       </c>
       <c r="I61">
-        <v>52.8</v>
+        <v>53</v>
       </c>
       <c r="J61">
-        <v>75.3</v>
+        <v>80</v>
       </c>
       <c r="K61">
-        <v>78.599999999999994</v>
+        <v>51.2</v>
       </c>
       <c r="L61">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M61">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
@@ -3448,40 +3469,40 @@
         <v>72</v>
       </c>
       <c r="B62">
-        <v>50.5</v>
+        <v>39.9</v>
       </c>
       <c r="C62">
-        <v>57.2</v>
+        <v>42.5</v>
       </c>
       <c r="D62">
-        <v>45.3</v>
+        <v>41.2</v>
       </c>
       <c r="E62">
-        <v>82.9</v>
+        <v>74.3</v>
       </c>
       <c r="F62">
-        <v>81.2</v>
+        <v>70.7</v>
       </c>
       <c r="G62">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>53.3</v>
+        <v>54</v>
       </c>
       <c r="I62">
-        <v>55.8</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="J62">
-        <v>70.3</v>
+        <v>62.4</v>
       </c>
       <c r="K62">
-        <v>63</v>
+        <v>61.6</v>
       </c>
       <c r="L62">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M62">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
@@ -3489,40 +3510,40 @@
         <v>73</v>
       </c>
       <c r="B63">
-        <v>76.7</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="C63">
-        <v>69.900000000000006</v>
+        <v>54.6</v>
       </c>
       <c r="D63">
-        <v>52.9</v>
+        <v>58.5</v>
       </c>
       <c r="E63">
-        <v>60.8</v>
+        <v>87.1</v>
       </c>
       <c r="F63">
-        <v>9.6999999999999993</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="G63">
-        <v>18.100000000000001</v>
+        <v>93.9</v>
       </c>
       <c r="H63">
-        <v>70.3</v>
+        <v>85.8</v>
       </c>
       <c r="I63">
-        <v>60.7</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="J63">
-        <v>79.599999999999994</v>
+        <v>76</v>
       </c>
       <c r="K63">
-        <v>78.599999999999994</v>
+        <v>88.6</v>
       </c>
       <c r="L63">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="M63">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
@@ -3530,40 +3551,40 @@
         <v>74</v>
       </c>
       <c r="B64">
-        <v>39.200000000000003</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="C64">
-        <v>28.5</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="D64">
-        <v>24.9</v>
+        <v>81.3</v>
       </c>
       <c r="E64">
-        <v>91.7</v>
+        <v>60.8</v>
       </c>
       <c r="F64">
-        <v>94</v>
+        <v>42.3</v>
       </c>
       <c r="G64">
-        <v>85.8</v>
+        <v>91.8</v>
       </c>
       <c r="H64">
-        <v>65.8</v>
+        <v>83.3</v>
       </c>
       <c r="I64">
-        <v>50.1</v>
+        <v>52.8</v>
       </c>
       <c r="J64">
-        <v>77.400000000000006</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="K64">
-        <v>74.599999999999994</v>
+        <v>86</v>
       </c>
       <c r="L64">
+        <v>80</v>
+      </c>
+      <c r="M64">
         <v>70</v>
-      </c>
-      <c r="M64">
-        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
@@ -3571,40 +3592,40 @@
         <v>75</v>
       </c>
       <c r="B65">
-        <v>20.399999999999999</v>
+        <v>49.1</v>
       </c>
       <c r="C65">
-        <v>26.7</v>
+        <v>44.2</v>
       </c>
       <c r="D65">
-        <v>24.1</v>
+        <v>35.5</v>
       </c>
       <c r="E65">
-        <v>70.099999999999994</v>
+        <v>78.8</v>
       </c>
       <c r="F65">
-        <v>92.5</v>
+        <v>82</v>
       </c>
       <c r="G65">
-        <v>91.7</v>
+        <v>23.9</v>
       </c>
       <c r="H65">
-        <v>45.4</v>
+        <v>56.5</v>
       </c>
       <c r="I65">
-        <v>50</v>
+        <v>59.9</v>
       </c>
       <c r="J65">
-        <v>68.2</v>
+        <v>66.3</v>
       </c>
       <c r="K65">
-        <v>59.4</v>
+        <v>63.4</v>
       </c>
       <c r="L65">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M65">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
@@ -3612,40 +3633,40 @@
         <v>76</v>
       </c>
       <c r="B66">
-        <v>27.5</v>
+        <v>52.4</v>
       </c>
       <c r="C66">
-        <v>14.7</v>
+        <v>49.5</v>
       </c>
       <c r="D66">
-        <v>18.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="E66">
-        <v>89.1</v>
+        <v>59.1</v>
       </c>
       <c r="F66">
-        <v>84.2</v>
+        <v>23.3</v>
       </c>
       <c r="G66">
-        <v>22.2</v>
+        <v>79</v>
       </c>
       <c r="H66">
-        <v>31.6</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="I66">
-        <v>56.6</v>
+        <v>52.5</v>
       </c>
       <c r="J66">
-        <v>79.900000000000006</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="K66">
-        <v>50.7</v>
+        <v>81</v>
       </c>
       <c r="L66">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M66">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
@@ -3653,40 +3674,40 @@
         <v>77</v>
       </c>
       <c r="B67">
-        <v>46.7</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="C67">
-        <v>47.1</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="D67">
-        <v>40.200000000000003</v>
+        <v>26.4</v>
       </c>
       <c r="E67">
-        <v>73.2</v>
+        <v>79.2</v>
       </c>
       <c r="F67">
-        <v>76</v>
+        <v>95.6</v>
       </c>
       <c r="G67">
-        <v>39</v>
+        <v>96.2</v>
       </c>
       <c r="H67">
-        <v>67.099999999999994</v>
+        <v>53.6</v>
       </c>
       <c r="I67">
-        <v>73.8</v>
+        <v>48.7</v>
       </c>
       <c r="J67">
-        <v>79.599999999999994</v>
+        <v>77</v>
       </c>
       <c r="K67">
-        <v>55</v>
+        <v>82.2</v>
       </c>
       <c r="L67">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="M67">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
@@ -3694,40 +3715,40 @@
         <v>78</v>
       </c>
       <c r="B68">
-        <v>23.2</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="C68">
-        <v>18.5</v>
+        <v>32.6</v>
       </c>
       <c r="D68">
-        <v>15.8</v>
+        <v>25.5</v>
       </c>
       <c r="E68">
-        <v>81.7</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="F68">
-        <v>96.8</v>
+        <v>89.8</v>
       </c>
       <c r="G68">
-        <v>90</v>
+        <v>87.2</v>
       </c>
       <c r="H68">
-        <v>33.4</v>
+        <v>54.6</v>
       </c>
       <c r="I68">
-        <v>55.1</v>
+        <v>54.9</v>
       </c>
       <c r="J68">
-        <v>58.3</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="K68">
-        <v>66.5</v>
+        <v>63.2</v>
       </c>
       <c r="L68">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M68">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
@@ -3735,40 +3756,40 @@
         <v>79</v>
       </c>
       <c r="B69">
-        <v>38.299999999999997</v>
+        <v>32.6</v>
       </c>
       <c r="C69">
-        <v>29</v>
+        <v>42.9</v>
       </c>
       <c r="D69">
-        <v>23.4</v>
+        <v>25.3</v>
       </c>
       <c r="E69">
-        <v>83.8</v>
+        <v>88.8</v>
       </c>
       <c r="F69">
-        <v>77.5</v>
+        <v>86.7</v>
       </c>
       <c r="G69">
-        <v>84.4</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="H69">
-        <v>60.8</v>
+        <v>35.9</v>
       </c>
       <c r="I69">
-        <v>38.4</v>
+        <v>61.2</v>
       </c>
       <c r="J69">
-        <v>72</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="K69">
-        <v>71.599999999999994</v>
+        <v>55.6</v>
       </c>
       <c r="L69">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="M69">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
@@ -3776,40 +3797,40 @@
         <v>80</v>
       </c>
       <c r="B70">
-        <v>69.5</v>
+        <v>41.7</v>
       </c>
       <c r="C70">
-        <v>62.5</v>
+        <v>42.9</v>
       </c>
       <c r="D70">
-        <v>44.8</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="E70">
-        <v>84.2</v>
+        <v>67</v>
       </c>
       <c r="F70">
-        <v>29.8</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="G70">
-        <v>38.9</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="H70">
-        <v>73.5</v>
+        <v>59.3</v>
       </c>
       <c r="I70">
-        <v>61.3</v>
+        <v>62</v>
       </c>
       <c r="J70">
-        <v>76.5</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="K70">
-        <v>78.599999999999994</v>
+        <v>66.8</v>
       </c>
       <c r="L70">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="M70">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
@@ -3817,40 +3838,40 @@
         <v>81</v>
       </c>
       <c r="B71">
-        <v>96.8</v>
+        <v>10.4</v>
       </c>
       <c r="C71">
-        <v>94.2</v>
+        <v>25.3</v>
       </c>
       <c r="D71">
-        <v>83.9</v>
+        <v>20.3</v>
       </c>
       <c r="E71">
-        <v>72.900000000000006</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="F71">
-        <v>31.5</v>
+        <v>88.3</v>
       </c>
       <c r="G71">
-        <v>28.8</v>
+        <v>95.9</v>
       </c>
       <c r="H71">
-        <v>83.3</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="I71">
-        <v>67.7</v>
+        <v>62.6</v>
       </c>
       <c r="J71">
-        <v>77.400000000000006</v>
+        <v>66.5</v>
       </c>
       <c r="K71">
-        <v>80.400000000000006</v>
+        <v>72</v>
       </c>
       <c r="L71">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="M71">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
@@ -3858,40 +3879,40 @@
         <v>82</v>
       </c>
       <c r="B72">
-        <v>49.7</v>
+        <v>43.4</v>
       </c>
       <c r="C72">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D72">
-        <v>42.2</v>
+        <v>25.3</v>
       </c>
       <c r="E72">
-        <v>78.5</v>
+        <v>82.8</v>
       </c>
       <c r="F72">
-        <v>73.8</v>
+        <v>78.2</v>
       </c>
       <c r="G72">
-        <v>5.8</v>
+        <v>95.9</v>
       </c>
       <c r="H72">
-        <v>64.3</v>
+        <v>56.9</v>
       </c>
       <c r="I72">
-        <v>58.1</v>
+        <v>32</v>
       </c>
       <c r="J72">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K72">
-        <v>59.8</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="L72">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="M72">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
@@ -3899,40 +3920,40 @@
         <v>83</v>
       </c>
       <c r="B73">
-        <v>38.5</v>
+        <v>93.3</v>
       </c>
       <c r="C73">
-        <v>44.2</v>
+        <v>75.3</v>
       </c>
       <c r="D73">
-        <v>39.299999999999997</v>
+        <v>83.8</v>
       </c>
       <c r="E73">
-        <v>81.900000000000006</v>
+        <v>93.1</v>
       </c>
       <c r="F73">
-        <v>90.6</v>
+        <v>90.3</v>
       </c>
       <c r="G73">
-        <v>66.8</v>
+        <v>100</v>
       </c>
       <c r="H73">
-        <v>70.599999999999994</v>
+        <v>96.4</v>
       </c>
       <c r="I73">
-        <v>59.5</v>
+        <v>89.2</v>
       </c>
       <c r="J73">
-        <v>81.5</v>
+        <v>86.4</v>
       </c>
       <c r="K73">
-        <v>78.8</v>
+        <v>95</v>
       </c>
       <c r="L73">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M73">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
@@ -3940,37 +3961,37 @@
         <v>84</v>
       </c>
       <c r="B74">
-        <v>92.9</v>
+        <v>60.9</v>
       </c>
       <c r="C74">
-        <v>93.9</v>
+        <v>45.2</v>
       </c>
       <c r="D74">
-        <v>82.8</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E74">
-        <v>78.400000000000006</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="F74">
-        <v>80.5</v>
+        <v>31.7</v>
       </c>
       <c r="G74">
-        <v>86.8</v>
+        <v>85</v>
       </c>
       <c r="H74">
-        <v>87.2</v>
+        <v>61.1</v>
       </c>
       <c r="I74">
-        <v>61.2</v>
+        <v>64.7</v>
       </c>
       <c r="J74">
-        <v>81.5</v>
+        <v>81.8</v>
       </c>
       <c r="K74">
-        <v>78.599999999999994</v>
+        <v>86</v>
       </c>
       <c r="L74">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M74">
         <v>70</v>
@@ -3981,37 +4002,37 @@
         <v>85</v>
       </c>
       <c r="B75">
-        <v>82.3</v>
+        <v>87.4</v>
       </c>
       <c r="C75">
-        <v>82.8</v>
+        <v>63.8</v>
       </c>
       <c r="D75">
-        <v>62.7</v>
+        <v>83.8</v>
       </c>
       <c r="E75">
-        <v>60.9</v>
+        <v>72.7</v>
       </c>
       <c r="F75">
-        <v>49.1</v>
+        <v>44</v>
       </c>
       <c r="G75">
-        <v>31.1</v>
+        <v>96.7</v>
       </c>
       <c r="H75">
-        <v>84.9</v>
+        <v>88.4</v>
       </c>
       <c r="I75">
-        <v>56.9</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="J75">
-        <v>83</v>
+        <v>81.7</v>
       </c>
       <c r="K75">
-        <v>82.6</v>
+        <v>87</v>
       </c>
       <c r="L75">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M75">
         <v>70</v>
@@ -4022,40 +4043,40 @@
         <v>86</v>
       </c>
       <c r="B76">
-        <v>81.2</v>
+        <v>57.3</v>
       </c>
       <c r="C76">
-        <v>77.900000000000006</v>
+        <v>61.6</v>
       </c>
       <c r="D76">
-        <v>61.1</v>
+        <v>47.8</v>
       </c>
       <c r="E76">
-        <v>57.3</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="F76">
-        <v>13.7</v>
+        <v>77.3</v>
       </c>
       <c r="G76">
-        <v>20.399999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="H76">
-        <v>73.8</v>
+        <v>57.1</v>
       </c>
       <c r="I76">
-        <v>70.599999999999994</v>
+        <v>41.8</v>
       </c>
       <c r="J76">
-        <v>82.6</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="K76">
-        <v>78.599999999999994</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="L76">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M76">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
@@ -4063,40 +4084,40 @@
         <v>87</v>
       </c>
       <c r="B77">
-        <v>65.8</v>
+        <v>52.2</v>
       </c>
       <c r="C77">
-        <v>70.8</v>
+        <v>53.5</v>
       </c>
       <c r="D77">
-        <v>48.6</v>
+        <v>39.5</v>
       </c>
       <c r="E77">
+        <v>83.7</v>
+      </c>
+      <c r="F77">
+        <v>91.4</v>
+      </c>
+      <c r="G77">
+        <v>88.1</v>
+      </c>
+      <c r="H77">
+        <v>69.3</v>
+      </c>
+      <c r="I77">
+        <v>49.3</v>
+      </c>
+      <c r="J77">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="K77">
         <v>79.8</v>
       </c>
-      <c r="F77">
-        <v>72.2</v>
-      </c>
-      <c r="G77">
-        <v>82.6</v>
-      </c>
-      <c r="H77">
-        <v>67.7</v>
-      </c>
-      <c r="I77">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="J77">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="K77">
-        <v>70</v>
-      </c>
       <c r="L77">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="M77">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
@@ -4104,40 +4125,40 @@
         <v>88</v>
       </c>
       <c r="B78">
-        <v>94.1</v>
+        <v>33.5</v>
       </c>
       <c r="C78">
-        <v>94.7</v>
+        <v>41.3</v>
       </c>
       <c r="D78">
-        <v>80.7</v>
+        <v>35</v>
       </c>
       <c r="E78">
-        <v>68.099999999999994</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="F78">
-        <v>48.4</v>
+        <v>89.8</v>
       </c>
       <c r="G78">
-        <v>18.100000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="H78">
-        <v>78.3</v>
+        <v>62.2</v>
       </c>
       <c r="I78">
-        <v>66.8</v>
+        <v>50.7</v>
       </c>
       <c r="J78">
-        <v>87.1</v>
+        <v>60.1</v>
       </c>
       <c r="K78">
-        <v>75.2</v>
+        <v>54.6</v>
       </c>
       <c r="L78">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="M78">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
@@ -4145,40 +4166,40 @@
         <v>89</v>
       </c>
       <c r="B79">
-        <v>54.1</v>
+        <v>85.8</v>
       </c>
       <c r="C79">
-        <v>42.7</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="D79">
-        <v>48.3</v>
+        <v>78</v>
       </c>
       <c r="E79">
-        <v>84.7</v>
+        <v>76.3</v>
       </c>
       <c r="F79">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="G79">
+        <v>89</v>
+      </c>
+      <c r="H79">
+        <v>83.1</v>
+      </c>
+      <c r="I79">
+        <v>75.3</v>
+      </c>
+      <c r="J79">
+        <v>87</v>
+      </c>
+      <c r="K79">
+        <v>86</v>
+      </c>
+      <c r="L79">
+        <v>90</v>
+      </c>
+      <c r="M79">
         <v>70</v>
-      </c>
-      <c r="G79">
-        <v>3.1</v>
-      </c>
-      <c r="H79">
-        <v>59.8</v>
-      </c>
-      <c r="I79">
-        <v>57.4</v>
-      </c>
-      <c r="J79">
-        <v>83.6</v>
-      </c>
-      <c r="K79">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="L79">
-        <v>70</v>
-      </c>
-      <c r="M79">
-        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
@@ -4186,40 +4207,40 @@
         <v>90</v>
       </c>
       <c r="B80">
-        <v>54.8</v>
+        <v>80</v>
       </c>
       <c r="C80">
-        <v>34.4</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="D80">
-        <v>36.9</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="E80">
-        <v>93</v>
+        <v>61.9</v>
       </c>
       <c r="F80">
-        <v>85.1</v>
+        <v>52.4</v>
       </c>
       <c r="G80">
-        <v>70.599999999999994</v>
+        <v>85.3</v>
       </c>
       <c r="H80">
-        <v>64.599999999999994</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="I80">
-        <v>62.7</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="J80">
-        <v>67.7</v>
+        <v>86.2</v>
       </c>
       <c r="K80">
-        <v>74.8</v>
+        <v>84.4</v>
       </c>
       <c r="L80">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M80">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
@@ -4227,37 +4248,37 @@
         <v>91</v>
       </c>
       <c r="B81">
-        <v>39.700000000000003</v>
+        <v>71.7</v>
       </c>
       <c r="C81">
-        <v>38.9</v>
+        <v>49.8</v>
       </c>
       <c r="D81">
-        <v>30</v>
+        <v>43.7</v>
       </c>
       <c r="E81">
-        <v>79</v>
+        <v>55.6</v>
       </c>
       <c r="F81">
-        <v>81.7</v>
+        <v>26.5</v>
       </c>
       <c r="G81">
-        <v>10.8</v>
+        <v>71.3</v>
       </c>
       <c r="H81">
-        <v>56</v>
+        <v>71.7</v>
       </c>
       <c r="I81">
-        <v>57.1</v>
+        <v>51.1</v>
       </c>
       <c r="J81">
-        <v>74.7</v>
+        <v>84</v>
       </c>
       <c r="K81">
-        <v>57.2</v>
+        <v>86</v>
       </c>
       <c r="L81">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="M81">
         <v>50</v>
@@ -4268,40 +4289,40 @@
         <v>92</v>
       </c>
       <c r="B82">
-        <v>76.3</v>
+        <v>60.7</v>
       </c>
       <c r="C82">
-        <v>83.7</v>
+        <v>49.2</v>
       </c>
       <c r="D82">
-        <v>51.9</v>
+        <v>45</v>
       </c>
       <c r="E82">
-        <v>69.5</v>
+        <v>80.2</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G82">
-        <v>82.8</v>
+        <v>80</v>
       </c>
       <c r="H82">
-        <v>61.2</v>
+        <v>78</v>
       </c>
       <c r="I82">
-        <v>65.5</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="J82">
-        <v>79.5</v>
+        <v>82.6</v>
       </c>
       <c r="K82">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L82">
         <v>80</v>
       </c>
-      <c r="L82">
-        <v>25</v>
-      </c>
       <c r="M82">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
@@ -4309,40 +4330,40 @@
         <v>93</v>
       </c>
       <c r="B83">
-        <v>47.2</v>
+        <v>84.1</v>
       </c>
       <c r="C83">
-        <v>31.3</v>
+        <v>68.5</v>
       </c>
       <c r="D83">
-        <v>39.299999999999997</v>
+        <v>78</v>
       </c>
       <c r="E83">
-        <v>93.1</v>
+        <v>68.2</v>
       </c>
       <c r="F83">
-        <v>70.8</v>
+        <v>55</v>
       </c>
       <c r="G83">
-        <v>72.599999999999994</v>
+        <v>55.7</v>
       </c>
       <c r="H83">
-        <v>67.900000000000006</v>
+        <v>80.5</v>
       </c>
       <c r="I83">
-        <v>53.4</v>
+        <v>79</v>
       </c>
       <c r="J83">
-        <v>75</v>
+        <v>85.9</v>
       </c>
       <c r="K83">
-        <v>83.3</v>
+        <v>80</v>
       </c>
       <c r="L83">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M83">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
@@ -4350,37 +4371,37 @@
         <v>94</v>
       </c>
       <c r="B84">
-        <v>42.5</v>
+        <v>58.4</v>
       </c>
       <c r="C84">
-        <v>40.6</v>
+        <v>52.6</v>
       </c>
       <c r="D84">
-        <v>43.8</v>
+        <v>50.3</v>
       </c>
       <c r="E84">
-        <v>97.7</v>
+        <v>91.4</v>
       </c>
       <c r="F84">
-        <v>3.2</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="G84">
-        <v>80.900000000000006</v>
+        <v>60.6</v>
       </c>
       <c r="H84">
-        <v>59.1</v>
+        <v>61.8</v>
       </c>
       <c r="I84">
-        <v>52.1</v>
+        <v>52.7</v>
       </c>
       <c r="J84">
-        <v>69.3</v>
+        <v>85</v>
       </c>
       <c r="K84">
-        <v>75.599999999999994</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="L84">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="M84">
         <v>60</v>
@@ -4391,37 +4412,37 @@
         <v>95</v>
       </c>
       <c r="B85">
-        <v>24.2</v>
+        <v>59.3</v>
       </c>
       <c r="C85">
-        <v>13</v>
+        <v>56.1</v>
       </c>
       <c r="D85">
-        <v>25.2</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E85">
-        <v>95</v>
+        <v>93.4</v>
       </c>
       <c r="F85">
-        <v>66</v>
+        <v>83.7</v>
       </c>
       <c r="G85">
-        <v>90.1</v>
+        <v>41</v>
       </c>
       <c r="H85">
-        <v>56.1</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="I85">
-        <v>52.1</v>
+        <v>86.2</v>
       </c>
       <c r="J85">
-        <v>65.400000000000006</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="K85">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L85">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M85">
         <v>50</v>
@@ -4432,40 +4453,40 @@
         <v>96</v>
       </c>
       <c r="B86">
-        <v>41.8</v>
+        <v>53.8</v>
       </c>
       <c r="C86">
-        <v>11.4</v>
+        <v>46.9</v>
       </c>
       <c r="D86">
-        <v>21</v>
+        <v>32.1</v>
       </c>
       <c r="E86">
-        <v>89</v>
+        <v>79.5</v>
       </c>
       <c r="F86">
-        <v>90.1</v>
+        <v>77.8</v>
       </c>
       <c r="G86">
-        <v>54.6</v>
+        <v>13.8</v>
       </c>
       <c r="H86">
-        <v>56.7</v>
+        <v>55.8</v>
       </c>
       <c r="I86">
-        <v>44.5</v>
+        <v>63.4</v>
       </c>
       <c r="J86">
-        <v>72.3</v>
+        <v>72.7</v>
       </c>
       <c r="K86">
-        <v>66.599999999999994</v>
+        <v>60.4</v>
       </c>
       <c r="L86">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="M86">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
@@ -4473,40 +4494,40 @@
         <v>97</v>
       </c>
       <c r="B87">
-        <v>87.3</v>
+        <v>44.1</v>
       </c>
       <c r="C87">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D87">
+        <v>35.1</v>
+      </c>
+      <c r="E87">
         <v>73</v>
       </c>
-      <c r="D87">
-        <v>64.7</v>
-      </c>
-      <c r="E87">
-        <v>76.2</v>
-      </c>
       <c r="F87">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>78.900000000000006</v>
+        <v>98.6</v>
       </c>
       <c r="H87">
-        <v>78.2</v>
+        <v>41.9</v>
       </c>
       <c r="I87">
-        <v>62.6</v>
+        <v>50.7</v>
       </c>
       <c r="J87">
-        <v>80.099999999999994</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="K87">
-        <v>78.599999999999994</v>
+        <v>53.2</v>
       </c>
       <c r="L87">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="M87">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
@@ -4514,40 +4535,40 @@
         <v>98</v>
       </c>
       <c r="B88">
-        <v>42.4</v>
+        <v>79.3</v>
       </c>
       <c r="C88">
-        <v>43.3</v>
+        <v>57.5</v>
       </c>
       <c r="D88">
-        <v>41.6</v>
+        <v>50.5</v>
       </c>
       <c r="E88">
-        <v>77.3</v>
+        <v>64.2</v>
       </c>
       <c r="F88">
-        <v>11.2</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="G88">
-        <v>70.099999999999994</v>
+        <v>96.8</v>
       </c>
       <c r="H88">
-        <v>44</v>
+        <v>91.3</v>
       </c>
       <c r="I88">
-        <v>57.9</v>
+        <v>57.4</v>
       </c>
       <c r="J88">
-        <v>74.900000000000006</v>
+        <v>82</v>
       </c>
       <c r="K88">
-        <v>61.2</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="L88">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="M88">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
@@ -4555,40 +4576,40 @@
         <v>99</v>
       </c>
       <c r="B89">
-        <v>31.6</v>
+        <v>57.2</v>
       </c>
       <c r="C89">
-        <v>23.2</v>
+        <v>53.5</v>
       </c>
       <c r="D89">
-        <v>26.1</v>
+        <v>44.7</v>
       </c>
       <c r="E89">
-        <v>86.1</v>
+        <v>92.5</v>
       </c>
       <c r="F89">
-        <v>68.599999999999994</v>
+        <v>77.7</v>
       </c>
       <c r="G89">
-        <v>72.599999999999994</v>
+        <v>96</v>
       </c>
       <c r="H89">
-        <v>34.1</v>
+        <v>73.8</v>
       </c>
       <c r="I89">
-        <v>43.3</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="J89">
-        <v>68.3</v>
+        <v>78.3</v>
       </c>
       <c r="K89">
-        <v>66.8</v>
+        <v>70.8</v>
       </c>
       <c r="L89">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M89">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
@@ -4596,40 +4617,40 @@
         <v>100</v>
       </c>
       <c r="B90">
-        <v>87.7</v>
+        <v>52.9</v>
       </c>
       <c r="C90">
-        <v>74.2</v>
+        <v>43.3</v>
       </c>
       <c r="D90">
-        <v>68.5</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E90">
-        <v>77.7</v>
+        <v>97.7</v>
       </c>
       <c r="F90">
-        <v>56.9</v>
+        <v>17.3</v>
       </c>
       <c r="G90">
-        <v>68.599999999999994</v>
+        <v>99.1</v>
       </c>
       <c r="H90">
-        <v>76</v>
+        <v>57.4</v>
       </c>
       <c r="I90">
-        <v>60.2</v>
+        <v>61.7</v>
       </c>
       <c r="J90">
-        <v>78.099999999999994</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="K90">
-        <v>78.599999999999994</v>
+        <v>79</v>
       </c>
       <c r="L90">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="M90">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
@@ -4637,40 +4658,40 @@
         <v>101</v>
       </c>
       <c r="B91">
-        <v>96.8</v>
+        <v>49.9</v>
       </c>
       <c r="C91">
-        <v>96.5</v>
+        <v>27.9</v>
       </c>
       <c r="D91">
-        <v>89.7</v>
+        <v>27.2</v>
       </c>
       <c r="E91">
-        <v>64.8</v>
+        <v>94.1</v>
       </c>
       <c r="F91">
-        <v>41.6</v>
+        <v>54.2</v>
       </c>
       <c r="G91">
-        <v>80</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="H91">
-        <v>85.5</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="I91">
-        <v>56.8</v>
+        <v>79.8</v>
       </c>
       <c r="J91">
-        <v>75.099999999999994</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="K91">
         <v>78.599999999999994</v>
       </c>
       <c r="L91">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="M91">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
@@ -4678,40 +4699,40 @@
         <v>102</v>
       </c>
       <c r="B92">
-        <v>41.7</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="C92">
-        <v>34.4</v>
+        <v>42.5</v>
       </c>
       <c r="D92">
-        <v>23.8</v>
+        <v>33.5</v>
       </c>
       <c r="E92">
-        <v>90.7</v>
+        <v>86.9</v>
       </c>
       <c r="F92">
-        <v>93</v>
+        <v>85.3</v>
       </c>
       <c r="G92">
-        <v>82.3</v>
+        <v>66.5</v>
       </c>
       <c r="H92">
-        <v>38.5</v>
+        <v>60.1</v>
       </c>
       <c r="I92">
-        <v>56.2</v>
+        <v>60.1</v>
       </c>
       <c r="J92">
-        <v>75.3</v>
+        <v>78.5</v>
       </c>
       <c r="K92">
-        <v>65.8</v>
+        <v>81.8</v>
       </c>
       <c r="L92">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="M92">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
@@ -4719,40 +4740,40 @@
         <v>103</v>
       </c>
       <c r="B93">
+        <v>67.3</v>
+      </c>
+      <c r="C93">
         <v>48.4</v>
       </c>
-      <c r="C93">
-        <v>52.7</v>
-      </c>
       <c r="D93">
-        <v>36.6</v>
+        <v>35.5</v>
       </c>
       <c r="E93">
-        <v>71.599999999999994</v>
+        <v>77</v>
       </c>
       <c r="F93">
-        <v>85.2</v>
+        <v>57.1</v>
       </c>
       <c r="G93">
-        <v>11.8</v>
+        <v>96.9</v>
       </c>
       <c r="H93">
-        <v>34.1</v>
+        <v>77.5</v>
       </c>
       <c r="I93">
-        <v>56.9</v>
+        <v>73.3</v>
       </c>
       <c r="J93">
-        <v>70.8</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="K93">
-        <v>65.599999999999994</v>
+        <v>86</v>
       </c>
       <c r="L93">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="M93">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
@@ -4760,34 +4781,34 @@
         <v>104</v>
       </c>
       <c r="B94">
-        <v>65.400000000000006</v>
+        <v>39.5</v>
       </c>
       <c r="C94">
-        <v>57.6</v>
+        <v>26.6</v>
       </c>
       <c r="D94">
-        <v>51.6</v>
+        <v>18.2</v>
       </c>
       <c r="E94">
-        <v>83.9</v>
+        <v>91.8</v>
       </c>
       <c r="F94">
-        <v>82.4</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="G94">
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>70.3</v>
+        <v>47.9</v>
       </c>
       <c r="I94">
-        <v>58</v>
+        <v>46.5</v>
       </c>
       <c r="J94">
-        <v>81.099999999999994</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="K94">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L94">
         <v>60</v>
@@ -4801,40 +4822,40 @@
         <v>105</v>
       </c>
       <c r="B95">
-        <v>48.2</v>
+        <v>41.5</v>
       </c>
       <c r="C95">
-        <v>33.4</v>
+        <v>45.7</v>
       </c>
       <c r="D95">
-        <v>38.799999999999997</v>
+        <v>30.9</v>
       </c>
       <c r="E95">
-        <v>91.9</v>
+        <v>59.4</v>
       </c>
       <c r="F95">
-        <v>48.4</v>
+        <v>33</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>63.5</v>
       </c>
       <c r="H95">
-        <v>44.8</v>
+        <v>53.3</v>
       </c>
       <c r="I95">
-        <v>50</v>
+        <v>58.8</v>
       </c>
       <c r="J95">
-        <v>79.900000000000006</v>
+        <v>75</v>
       </c>
       <c r="K95">
-        <v>58.6</v>
+        <v>81</v>
       </c>
       <c r="L95">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="M95">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
@@ -4842,40 +4863,40 @@
         <v>106</v>
       </c>
       <c r="B96">
-        <v>32.6</v>
+        <v>26.7</v>
       </c>
       <c r="C96">
-        <v>33.4</v>
+        <v>39</v>
       </c>
       <c r="D96">
-        <v>26.9</v>
+        <v>24.2</v>
       </c>
       <c r="E96">
+        <v>82.7</v>
+      </c>
+      <c r="F96">
+        <v>62.1</v>
+      </c>
+      <c r="G96">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="H96">
+        <v>50.6</v>
+      </c>
+      <c r="I96">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="J96">
         <v>68.900000000000006</v>
       </c>
-      <c r="F96">
-        <v>80.5</v>
-      </c>
-      <c r="G96">
-        <v>68.7</v>
-      </c>
-      <c r="H96">
-        <v>40.5</v>
-      </c>
-      <c r="I96">
-        <v>54.4</v>
-      </c>
-      <c r="J96">
-        <v>79.2</v>
-      </c>
       <c r="K96">
-        <v>64</v>
+        <v>60.1</v>
       </c>
       <c r="L96">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M96">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
@@ -4883,40 +4904,40 @@
         <v>107</v>
       </c>
       <c r="B97">
-        <v>86.9</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="C97">
-        <v>90.8</v>
+        <v>61.2</v>
       </c>
       <c r="D97">
-        <v>57.4</v>
+        <v>47.8</v>
       </c>
       <c r="E97">
-        <v>69.900000000000006</v>
+        <v>86.4</v>
       </c>
       <c r="F97">
-        <v>45.9</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="G97">
-        <v>43.5</v>
+        <v>97.3</v>
       </c>
       <c r="H97">
-        <v>75.5</v>
+        <v>75.2</v>
       </c>
       <c r="I97">
-        <v>62.7</v>
+        <v>63.6</v>
       </c>
       <c r="J97">
-        <v>79.3</v>
+        <v>84.6</v>
       </c>
       <c r="K97">
-        <v>78.599999999999994</v>
+        <v>86</v>
       </c>
       <c r="L97">
+        <v>80</v>
+      </c>
+      <c r="M97">
         <v>70</v>
-      </c>
-      <c r="M97">
-        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
@@ -4924,40 +4945,40 @@
         <v>108</v>
       </c>
       <c r="B98">
-        <v>36.4</v>
+        <v>83</v>
       </c>
       <c r="C98">
-        <v>27.7</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="D98">
-        <v>24.2</v>
+        <v>85.8</v>
       </c>
       <c r="E98">
-        <v>75.8</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="F98">
-        <v>90</v>
+        <v>46.6</v>
       </c>
       <c r="G98">
-        <v>94.7</v>
+        <v>98.9</v>
       </c>
       <c r="H98">
-        <v>35.299999999999997</v>
+        <v>68.8</v>
       </c>
       <c r="I98">
-        <v>49.3</v>
+        <v>45.9</v>
       </c>
       <c r="J98">
-        <v>78.599999999999994</v>
+        <v>82.6</v>
       </c>
       <c r="K98">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="L98">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="M98">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
@@ -4965,37 +4986,37 @@
         <v>109</v>
       </c>
       <c r="B99">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C99">
-        <v>81.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="D99">
-        <v>58.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="E99">
-        <v>91</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="F99">
-        <v>70.2</v>
+        <v>90.4</v>
       </c>
       <c r="G99">
-        <v>2.5</v>
+        <v>100</v>
       </c>
       <c r="H99">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="I99">
-        <v>69.099999999999994</v>
+        <v>50</v>
       </c>
       <c r="J99">
-        <v>73.400000000000006</v>
+        <v>76.5</v>
       </c>
       <c r="K99">
-        <v>87.8</v>
+        <v>90</v>
       </c>
       <c r="L99">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M99">
         <v>70</v>
@@ -5006,37 +5027,37 @@
         <v>110</v>
       </c>
       <c r="B100">
-        <v>47.8</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="C100">
-        <v>40</v>
+        <v>60.7</v>
       </c>
       <c r="D100">
-        <v>30.8</v>
+        <v>44.7</v>
       </c>
       <c r="E100">
-        <v>75.5</v>
+        <v>91.8</v>
       </c>
       <c r="F100">
-        <v>77.8</v>
+        <v>70</v>
       </c>
       <c r="G100">
-        <v>73.599999999999994</v>
+        <v>82.9</v>
       </c>
       <c r="H100">
-        <v>72.400000000000006</v>
+        <v>80.2</v>
       </c>
       <c r="I100">
-        <v>57.7</v>
+        <v>71.5</v>
       </c>
       <c r="J100">
-        <v>70.900000000000006</v>
+        <v>78.7</v>
       </c>
       <c r="K100">
-        <v>76.8</v>
+        <v>82</v>
       </c>
       <c r="L100">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="M100">
         <v>60</v>
@@ -5047,40 +5068,40 @@
         <v>111</v>
       </c>
       <c r="B101">
-        <v>57.7</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="C101">
-        <v>84.7</v>
+        <v>24.4</v>
       </c>
       <c r="D101">
-        <v>62.4</v>
+        <v>14.3</v>
       </c>
       <c r="E101">
         <v>91</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>91.8</v>
       </c>
       <c r="G101">
-        <v>99.5</v>
+        <v>85.5</v>
       </c>
       <c r="H101">
-        <v>52.5</v>
+        <v>47.3</v>
       </c>
       <c r="I101">
-        <v>82</v>
+        <v>44.6</v>
       </c>
       <c r="J101">
-        <v>81.5</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="K101">
-        <v>74.8</v>
+        <v>69.2</v>
       </c>
       <c r="L101">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="M101">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
@@ -5088,37 +5109,37 @@
         <v>112</v>
       </c>
       <c r="B102">
-        <v>37.9</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="C102">
-        <v>29.8</v>
+        <v>40.1</v>
       </c>
       <c r="D102">
-        <v>35.6</v>
+        <v>25.2</v>
       </c>
       <c r="E102">
-        <v>93.4</v>
+        <v>79.8</v>
       </c>
       <c r="F102">
-        <v>64.400000000000006</v>
+        <v>70.3</v>
       </c>
       <c r="G102">
-        <v>82.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="H102">
-        <v>60.2</v>
+        <v>41.7</v>
       </c>
       <c r="I102">
-        <v>46.6</v>
+        <v>64</v>
       </c>
       <c r="J102">
-        <v>71.2</v>
+        <v>65.5</v>
       </c>
       <c r="K102">
-        <v>75.599999999999994</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="L102">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M102">
         <v>50</v>
@@ -5129,37 +5150,37 @@
         <v>113</v>
       </c>
       <c r="B103">
-        <v>48.7</v>
+        <v>84.1</v>
       </c>
       <c r="C103">
-        <v>55.8</v>
+        <v>68.2</v>
       </c>
       <c r="D103">
-        <v>37.200000000000003</v>
+        <v>55.4</v>
       </c>
       <c r="E103">
-        <v>88.2</v>
+        <v>85.6</v>
       </c>
       <c r="F103">
-        <v>64.099999999999994</v>
+        <v>83.2</v>
       </c>
       <c r="G103">
-        <v>64.3</v>
+        <v>82.4</v>
       </c>
       <c r="H103">
-        <v>66.400000000000006</v>
+        <v>83.9</v>
       </c>
       <c r="I103">
-        <v>67.5</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="J103">
-        <v>74.099999999999994</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="K103">
-        <v>74.2</v>
+        <v>82</v>
       </c>
       <c r="L103">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M103">
         <v>50</v>
@@ -5170,40 +5191,40 @@
         <v>114</v>
       </c>
       <c r="B104">
-        <v>59.7</v>
+        <v>43.9</v>
       </c>
       <c r="C104">
-        <v>41.2</v>
+        <v>36.4</v>
       </c>
       <c r="D104">
-        <v>47</v>
+        <v>33.5</v>
       </c>
       <c r="E104">
-        <v>88.2</v>
+        <v>95.8</v>
       </c>
       <c r="F104">
-        <v>31.7</v>
+        <v>60.8</v>
       </c>
       <c r="G104">
-        <v>48.1</v>
+        <v>10.7</v>
       </c>
       <c r="H104">
-        <v>67.3</v>
+        <v>78.3</v>
       </c>
       <c r="I104">
-        <v>61.6</v>
+        <v>70.8</v>
       </c>
       <c r="J104">
-        <v>81.8</v>
+        <v>81</v>
       </c>
       <c r="K104">
-        <v>79.2</v>
+        <v>62.6</v>
       </c>
       <c r="L104">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M104">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
@@ -5211,40 +5232,40 @@
         <v>115</v>
       </c>
       <c r="B105">
-        <v>57.1</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="C105">
-        <v>32.799999999999997</v>
+        <v>33.4</v>
       </c>
       <c r="D105">
-        <v>38.700000000000003</v>
+        <v>29.6</v>
       </c>
       <c r="E105">
-        <v>67.900000000000006</v>
+        <v>68.7</v>
       </c>
       <c r="F105">
-        <v>72</v>
+        <v>85.4</v>
       </c>
       <c r="G105">
-        <v>41.3</v>
+        <v>84.2</v>
       </c>
       <c r="H105">
-        <v>65.3</v>
+        <v>53.8</v>
       </c>
       <c r="I105">
-        <v>47.6</v>
+        <v>52.2</v>
       </c>
       <c r="J105">
-        <v>78.3</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="K105">
-        <v>64.400000000000006</v>
+        <v>69.8</v>
       </c>
       <c r="L105">
         <v>65</v>
       </c>
       <c r="M105">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
@@ -5252,40 +5273,40 @@
         <v>116</v>
       </c>
       <c r="B106">
-        <v>31.2</v>
+        <v>69.8</v>
       </c>
       <c r="C106">
-        <v>44.6</v>
+        <v>50.4</v>
       </c>
       <c r="D106">
-        <v>27.1</v>
+        <v>50.3</v>
       </c>
       <c r="E106">
-        <v>75.3</v>
+        <v>64.2</v>
       </c>
       <c r="F106">
-        <v>70.599999999999994</v>
+        <v>56.1</v>
       </c>
       <c r="G106">
-        <v>65.900000000000006</v>
+        <v>94.5</v>
       </c>
       <c r="H106">
-        <v>36.1</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="I106">
-        <v>47.8</v>
+        <v>61.3</v>
       </c>
       <c r="J106">
-        <v>76.099999999999994</v>
+        <v>78.2</v>
       </c>
       <c r="K106">
-        <v>70.8</v>
+        <v>86</v>
       </c>
       <c r="L106">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="M106">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
@@ -5293,37 +5314,37 @@
         <v>117</v>
       </c>
       <c r="B107">
-        <v>64</v>
+        <v>27.5</v>
       </c>
       <c r="C107">
-        <v>67.2</v>
+        <v>30.6</v>
       </c>
       <c r="D107">
-        <v>52.5</v>
+        <v>30.6</v>
       </c>
       <c r="E107">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F107">
-        <v>53</v>
+        <v>74.2</v>
       </c>
       <c r="G107">
-        <v>9.6</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="H107">
-        <v>56</v>
+        <v>61.9</v>
       </c>
       <c r="I107">
-        <v>63.3</v>
+        <v>51.5</v>
       </c>
       <c r="J107">
-        <v>78.5</v>
+        <v>81.2</v>
       </c>
       <c r="K107">
-        <v>71.8</v>
+        <v>62.6</v>
       </c>
       <c r="L107">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M107">
         <v>40</v>
@@ -5334,40 +5355,40 @@
         <v>118</v>
       </c>
       <c r="B108">
-        <v>37.6</v>
+        <v>69.5</v>
       </c>
       <c r="C108">
-        <v>43.4</v>
+        <v>62.1</v>
       </c>
       <c r="D108">
-        <v>34</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E108">
-        <v>85</v>
+        <v>92.1</v>
       </c>
       <c r="F108">
-        <v>77.2</v>
+        <v>80.3</v>
       </c>
       <c r="G108">
-        <v>58.9</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="H108">
-        <v>60.1</v>
+        <v>79.8</v>
       </c>
       <c r="I108">
-        <v>51.5</v>
+        <v>60.8</v>
       </c>
       <c r="J108">
-        <v>71.8</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="K108">
-        <v>57.8</v>
+        <v>88.4</v>
       </c>
       <c r="L108">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="M108">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
@@ -5375,40 +5396,40 @@
         <v>119</v>
       </c>
       <c r="B109">
-        <v>95.6</v>
+        <v>59.1</v>
       </c>
       <c r="C109">
-        <v>96.6</v>
+        <v>34.9</v>
       </c>
       <c r="D109">
-        <v>91</v>
+        <v>26.3</v>
       </c>
       <c r="E109">
-        <v>51</v>
+        <v>75.8</v>
       </c>
       <c r="F109">
-        <v>37.9</v>
+        <v>78.2</v>
       </c>
       <c r="G109">
-        <v>90.8</v>
+        <v>83.2</v>
       </c>
       <c r="H109">
-        <v>84.4</v>
+        <v>67.8</v>
       </c>
       <c r="I109">
-        <v>59.3</v>
+        <v>58.6</v>
       </c>
       <c r="J109">
-        <v>80.2</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="K109">
-        <v>78.599999999999994</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="L109">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="M109">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
@@ -5416,40 +5437,40 @@
         <v>120</v>
       </c>
       <c r="B110">
-        <v>87.8</v>
+        <v>7.6</v>
       </c>
       <c r="C110">
-        <v>94.7</v>
+        <v>26.6</v>
       </c>
       <c r="D110">
-        <v>96.8</v>
+        <v>36.6</v>
       </c>
       <c r="E110">
-        <v>66.599999999999994</v>
+        <v>92.8</v>
       </c>
       <c r="F110">
-        <v>49.7</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>72.2</v>
+        <v>98.8</v>
       </c>
       <c r="H110">
-        <v>88.8</v>
+        <v>57.4</v>
       </c>
       <c r="I110">
-        <v>71.5</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="J110">
-        <v>78.7</v>
+        <v>85.8</v>
       </c>
       <c r="K110">
-        <v>90.4</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="L110">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="M110">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
@@ -5457,37 +5478,37 @@
         <v>121</v>
       </c>
       <c r="B111">
-        <v>29.7</v>
+        <v>55.2</v>
       </c>
       <c r="C111">
-        <v>20.399999999999999</v>
+        <v>29.6</v>
       </c>
       <c r="D111">
-        <v>17.600000000000001</v>
+        <v>25.4</v>
       </c>
       <c r="E111">
-        <v>75.599999999999994</v>
+        <v>85.4</v>
       </c>
       <c r="F111">
-        <v>74.400000000000006</v>
+        <v>59.1</v>
       </c>
       <c r="G111">
         <v>92</v>
       </c>
       <c r="H111">
-        <v>53.9</v>
+        <v>67</v>
       </c>
       <c r="I111">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J111">
-        <v>71.3</v>
+        <v>73.5</v>
       </c>
       <c r="K111">
-        <v>66.400000000000006</v>
+        <v>78</v>
       </c>
       <c r="L111">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M111">
         <v>50</v>
@@ -5498,40 +5519,40 @@
         <v>122</v>
       </c>
       <c r="B112">
-        <v>36.799999999999997</v>
+        <v>48.2</v>
       </c>
       <c r="C112">
-        <v>37.200000000000003</v>
+        <v>23.8</v>
       </c>
       <c r="D112">
-        <v>32.1</v>
+        <v>29.8</v>
       </c>
       <c r="E112">
-        <v>77.7</v>
+        <v>88.5</v>
       </c>
       <c r="F112">
-        <v>84.3</v>
+        <v>63.1</v>
       </c>
       <c r="G112">
-        <v>55.9</v>
+        <v>6.2</v>
       </c>
       <c r="H112">
-        <v>34.5</v>
+        <v>66</v>
       </c>
       <c r="I112">
-        <v>54.1</v>
+        <v>75</v>
       </c>
       <c r="J112">
-        <v>73.2</v>
+        <v>77.8</v>
       </c>
       <c r="K112">
-        <v>63</v>
+        <v>75.8</v>
       </c>
       <c r="L112">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M112">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
@@ -5539,488 +5560,488 @@
         <v>123</v>
       </c>
       <c r="B113">
-        <v>24</v>
+        <v>55.4</v>
       </c>
       <c r="C113">
-        <v>33.799999999999997</v>
+        <v>51.8</v>
       </c>
       <c r="D113">
-        <v>22.5</v>
+        <v>39.5</v>
       </c>
       <c r="E113">
-        <v>84.9</v>
+        <v>85.3</v>
       </c>
       <c r="F113">
-        <v>95.2</v>
+        <v>32.6</v>
       </c>
       <c r="G113">
+        <v>23.2</v>
+      </c>
+      <c r="H113">
+        <v>73.3</v>
+      </c>
+      <c r="I113">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="J113">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="K113">
+        <v>84.7</v>
+      </c>
+      <c r="L113">
+        <v>75</v>
+      </c>
+      <c r="M113">
         <v>50</v>
-      </c>
-      <c r="H113">
-        <v>44.3</v>
-      </c>
-      <c r="I113">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="J113">
-        <v>65</v>
-      </c>
-      <c r="K113">
-        <v>68</v>
-      </c>
-      <c r="L113">
-        <v>45</v>
-      </c>
-      <c r="M113">
-        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="B114">
-        <v>58.9</v>
+        <v>57.2</v>
       </c>
       <c r="C114">
-        <v>50.5</v>
+        <v>47.1</v>
       </c>
       <c r="D114">
-        <v>40.1</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="E114">
-        <v>95</v>
+        <v>72.2</v>
       </c>
       <c r="F114">
-        <v>63.9</v>
+        <v>72.7</v>
       </c>
       <c r="G114">
-        <v>51.4</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="H114">
-        <v>74.099999999999994</v>
+        <v>70.3</v>
       </c>
       <c r="I114">
-        <v>52.7</v>
+        <v>33.1</v>
       </c>
       <c r="J114">
-        <v>75</v>
+        <v>83.5</v>
       </c>
       <c r="K114">
-        <v>77.8</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="L114">
         <v>65</v>
       </c>
       <c r="M114">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B115">
-        <v>98.9</v>
+        <v>33.9</v>
       </c>
       <c r="C115">
-        <v>97.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="D115">
-        <v>96.2</v>
+        <v>28.1</v>
       </c>
       <c r="E115">
-        <v>57.4</v>
+        <v>75.5</v>
       </c>
       <c r="F115">
-        <v>18.7</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="G115">
-        <v>96.2</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="H115">
-        <v>95.2</v>
+        <v>57.1</v>
       </c>
       <c r="I115">
-        <v>69.2</v>
+        <v>42</v>
       </c>
       <c r="J115">
-        <v>74.400000000000006</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="K115">
-        <v>84.6</v>
+        <v>78</v>
       </c>
       <c r="L115">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M115">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B116">
-        <v>75.2</v>
+        <v>55.9</v>
       </c>
       <c r="C116">
-        <v>26.1</v>
+        <v>54.7</v>
       </c>
       <c r="D116">
-        <v>49.2</v>
+        <v>49.8</v>
       </c>
       <c r="E116">
-        <v>97.6</v>
+        <v>66.5</v>
       </c>
       <c r="F116">
-        <v>50.7</v>
+        <v>48.9</v>
       </c>
       <c r="G116">
-        <v>12.1</v>
+        <v>15.7</v>
       </c>
       <c r="H116">
-        <v>61.8</v>
+        <v>65.8</v>
       </c>
       <c r="I116">
-        <v>45.7</v>
+        <v>85.1</v>
       </c>
       <c r="J116">
-        <v>82.9</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="K116">
-        <v>76.2</v>
+        <v>83</v>
       </c>
       <c r="L116">
         <v>65</v>
       </c>
       <c r="M116">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B117">
-        <v>29</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="C117">
-        <v>29.6</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="D117">
-        <v>26.8</v>
+        <v>26.2</v>
       </c>
       <c r="E117">
-        <v>78.3</v>
+        <v>84</v>
       </c>
       <c r="F117">
-        <v>88.9</v>
+        <v>83.7</v>
       </c>
       <c r="G117">
-        <v>11.4</v>
+        <v>98.5</v>
       </c>
       <c r="H117">
-        <v>45.9</v>
+        <v>61.8</v>
       </c>
       <c r="I117">
-        <v>51.6</v>
+        <v>47.9</v>
       </c>
       <c r="J117">
-        <v>65.8</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="K117">
-        <v>65.8</v>
+        <v>60.4</v>
       </c>
       <c r="L117">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M117">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B118">
-        <v>56.8</v>
+        <v>88</v>
       </c>
       <c r="C118">
-        <v>51.5</v>
+        <v>74.7</v>
       </c>
       <c r="D118">
-        <v>38.700000000000003</v>
+        <v>89.1</v>
       </c>
       <c r="E118">
-        <v>85.6</v>
+        <v>51.6</v>
       </c>
       <c r="F118">
-        <v>81.099999999999994</v>
+        <v>42.9</v>
       </c>
       <c r="G118">
-        <v>19.100000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="H118">
-        <v>71.099999999999994</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="I118">
-        <v>61</v>
+        <v>60.3</v>
       </c>
       <c r="J118">
-        <v>77.3</v>
+        <v>84</v>
       </c>
       <c r="K118">
-        <v>78.5</v>
+        <v>86</v>
       </c>
       <c r="L118">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="M118">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B119">
-        <v>43.6</v>
+        <v>95</v>
       </c>
       <c r="C119">
-        <v>44.1</v>
+        <v>83.5</v>
       </c>
       <c r="D119">
-        <v>32</v>
+        <v>96.7</v>
       </c>
       <c r="E119">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F119">
-        <v>86</v>
+        <v>50.4</v>
       </c>
       <c r="G119">
-        <v>26.4</v>
+        <v>98.6</v>
       </c>
       <c r="H119">
-        <v>46.7</v>
+        <v>91</v>
       </c>
       <c r="I119">
-        <v>65.2</v>
+        <v>86.7</v>
       </c>
       <c r="J119">
-        <v>71.5</v>
+        <v>87.5</v>
       </c>
       <c r="K119">
-        <v>77.7</v>
+        <v>92.4</v>
       </c>
       <c r="L119">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="M119">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B120">
-        <v>46.8</v>
+        <v>33.4</v>
       </c>
       <c r="C120">
-        <v>37.9</v>
+        <v>18.7</v>
       </c>
       <c r="D120">
-        <v>30.1</v>
+        <v>20.3</v>
       </c>
       <c r="E120">
-        <v>96.2</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="F120">
-        <v>81.7</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="G120">
-        <v>45.4</v>
+        <v>93.9</v>
       </c>
       <c r="H120">
-        <v>69.5</v>
+        <v>56</v>
       </c>
       <c r="I120">
-        <v>39.5</v>
+        <v>55.8</v>
       </c>
       <c r="J120">
-        <v>72.599999999999994</v>
+        <v>72.7</v>
       </c>
       <c r="K120">
-        <v>77.2</v>
+        <v>76</v>
       </c>
       <c r="L120">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="M120">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B121">
-        <v>51.4</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C121">
+        <v>31</v>
+      </c>
+      <c r="D121">
+        <v>34.1</v>
+      </c>
+      <c r="E121">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="F121">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="G121">
+        <v>22.2</v>
+      </c>
+      <c r="H121">
+        <v>56.3</v>
+      </c>
+      <c r="I121">
         <v>48.2</v>
       </c>
-      <c r="D121">
-        <v>38.5</v>
-      </c>
-      <c r="E121">
-        <v>80</v>
-      </c>
-      <c r="F121">
-        <v>83.3</v>
-      </c>
-      <c r="G121">
-        <v>70.8</v>
-      </c>
-      <c r="H121">
-        <v>72.8</v>
-      </c>
-      <c r="I121">
-        <v>58.3</v>
-      </c>
       <c r="J121">
-        <v>78.5</v>
+        <v>76.7</v>
       </c>
       <c r="K121">
-        <v>81.2</v>
+        <v>65.8</v>
       </c>
       <c r="L121">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="M121">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B122">
-        <v>46.4</v>
+        <v>36.5</v>
       </c>
       <c r="C122">
-        <v>25.8</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="D122">
-        <v>34.4</v>
+        <v>20.5</v>
       </c>
       <c r="E122">
-        <v>78.3</v>
+        <v>85</v>
       </c>
       <c r="F122">
-        <v>81.3</v>
+        <v>96.5</v>
       </c>
       <c r="G122">
-        <v>59.4</v>
+        <v>68.2</v>
       </c>
       <c r="H122">
-        <v>66.099999999999994</v>
+        <v>51.2</v>
       </c>
       <c r="I122">
-        <v>57.5</v>
+        <v>83.3</v>
       </c>
       <c r="J122">
-        <v>68.3</v>
+        <v>65</v>
       </c>
       <c r="K122">
-        <v>74.400000000000006</v>
+        <v>62.4</v>
       </c>
       <c r="L122">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="M122">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B123">
-        <v>72.7</v>
+        <v>86.1</v>
       </c>
       <c r="C123">
-        <v>52.7</v>
+        <v>81.2</v>
       </c>
       <c r="D123">
-        <v>60.2</v>
+        <v>92.3</v>
       </c>
       <c r="E123">
-        <v>73.2</v>
+        <v>57.4</v>
       </c>
       <c r="F123">
-        <v>40</v>
+        <v>25.3</v>
       </c>
       <c r="G123">
-        <v>78.099999999999994</v>
+        <v>97.3</v>
       </c>
       <c r="H123">
-        <v>74.8</v>
+        <v>89.4</v>
       </c>
       <c r="I123">
-        <v>55.4</v>
+        <v>53.7</v>
       </c>
       <c r="J123">
-        <v>76.7</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="K123">
-        <v>78.599999999999994</v>
+        <v>83.2</v>
       </c>
       <c r="L123">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M123">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B124">
-        <v>89.9</v>
+        <v>58.1</v>
       </c>
       <c r="C124">
-        <v>90.7</v>
+        <v>51.6</v>
       </c>
       <c r="D124">
-        <v>67</v>
+        <v>53.8</v>
       </c>
       <c r="E124">
-        <v>60.5</v>
+        <v>97.8</v>
       </c>
       <c r="F124">
-        <v>34.700000000000003</v>
+        <v>32.5</v>
       </c>
       <c r="G124">
-        <v>67</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H124">
-        <v>76.2</v>
+        <v>75.2</v>
       </c>
       <c r="I124">
-        <v>55.1</v>
+        <v>57.3</v>
       </c>
       <c r="J124">
-        <v>84.8</v>
+        <v>77.7</v>
       </c>
       <c r="K124">
-        <v>78.599999999999994</v>
+        <v>87</v>
       </c>
       <c r="L124">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M124">
         <v>60</v>
@@ -6028,122 +6049,122 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B125">
-        <v>71.2</v>
+        <v>41.5</v>
       </c>
       <c r="C125">
-        <v>39.799999999999997</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="D125">
-        <v>58.3</v>
+        <v>30.6</v>
       </c>
       <c r="E125">
-        <v>99.7</v>
+        <v>80.5</v>
       </c>
       <c r="F125">
-        <v>68.900000000000006</v>
+        <v>87.6</v>
       </c>
       <c r="G125">
-        <v>93.2</v>
+        <v>49.2</v>
       </c>
       <c r="H125">
-        <v>62.4</v>
+        <v>56.1</v>
       </c>
       <c r="I125">
-        <v>52.6</v>
+        <v>41.8</v>
       </c>
       <c r="J125">
-        <v>75.599999999999994</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="K125">
-        <v>81.599999999999994</v>
+        <v>64.8</v>
       </c>
       <c r="L125">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M125">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B126">
-        <v>81</v>
+        <v>60.4</v>
       </c>
       <c r="C126">
-        <v>64.900000000000006</v>
+        <v>30.1</v>
       </c>
       <c r="D126">
-        <v>47.2</v>
+        <v>34.1</v>
       </c>
       <c r="E126">
-        <v>94.4</v>
+        <v>85</v>
       </c>
       <c r="F126">
-        <v>59.7</v>
+        <v>85.3</v>
       </c>
       <c r="G126">
-        <v>14.7</v>
+        <v>91.3</v>
       </c>
       <c r="H126">
-        <v>71.3</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="I126">
-        <v>65.099999999999994</v>
+        <v>43.4</v>
       </c>
       <c r="J126">
-        <v>76.8</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="K126">
-        <v>78.599999999999994</v>
+        <v>79.2</v>
       </c>
       <c r="L126">
+        <v>75</v>
+      </c>
+      <c r="M126">
         <v>70</v>
-      </c>
-      <c r="M126">
-        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B127">
-        <v>30.6</v>
+        <v>37.4</v>
       </c>
       <c r="C127">
-        <v>32.9</v>
+        <v>49</v>
       </c>
       <c r="D127">
-        <v>28</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E127">
-        <v>88.3</v>
+        <v>71.8</v>
       </c>
       <c r="F127">
-        <v>60.4</v>
+        <v>89.1</v>
       </c>
       <c r="G127">
-        <v>99.1</v>
+        <v>75.2</v>
       </c>
       <c r="H127">
-        <v>54.8</v>
+        <v>62.2</v>
       </c>
       <c r="I127">
-        <v>57.7</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="J127">
-        <v>64.900000000000006</v>
+        <v>70</v>
       </c>
       <c r="K127">
-        <v>69.400000000000006</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="L127">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M127">
         <v>30</v>
@@ -6151,1352 +6172,1352 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B128">
-        <v>61.1</v>
+        <v>39.5</v>
       </c>
       <c r="C128">
-        <v>27.3</v>
+        <v>30</v>
       </c>
       <c r="D128">
-        <v>52.7</v>
+        <v>25.5</v>
       </c>
       <c r="E128">
+        <v>96.3</v>
+      </c>
+      <c r="F128">
         <v>78.900000000000006</v>
       </c>
-      <c r="F128">
-        <v>71.099999999999994</v>
-      </c>
       <c r="G128">
-        <v>11.1</v>
+        <v>96.3</v>
       </c>
       <c r="H128">
-        <v>51.8</v>
+        <v>61.5</v>
       </c>
       <c r="I128">
-        <v>42.8</v>
+        <v>29.2</v>
       </c>
       <c r="J128">
-        <v>79.7</v>
+        <v>72.8</v>
       </c>
       <c r="K128">
-        <v>50</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="L128">
+        <v>75</v>
+      </c>
+      <c r="M128">
         <v>60</v>
-      </c>
-      <c r="M128">
-        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B129">
-        <v>68.599999999999994</v>
+        <v>56.1</v>
       </c>
       <c r="C129">
-        <v>77.3</v>
+        <v>34</v>
       </c>
       <c r="D129">
-        <v>58.9</v>
+        <v>31.8</v>
       </c>
       <c r="E129">
-        <v>77.8</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="F129">
-        <v>73.400000000000006</v>
+        <v>86.1</v>
       </c>
       <c r="G129">
-        <v>3</v>
+        <v>88.5</v>
       </c>
       <c r="H129">
-        <v>69.599999999999994</v>
+        <v>67.8</v>
       </c>
       <c r="I129">
-        <v>57.3</v>
+        <v>63.5</v>
       </c>
       <c r="J129">
-        <v>80.900000000000006</v>
+        <v>83.9</v>
       </c>
       <c r="K129">
-        <v>56.6</v>
+        <v>86.4</v>
       </c>
       <c r="L129">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M129">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B130">
-        <v>67.099999999999994</v>
+        <v>48.7</v>
       </c>
       <c r="C130">
-        <v>77.3</v>
+        <v>36.4</v>
       </c>
       <c r="D130">
-        <v>62.8</v>
+        <v>30.9</v>
       </c>
       <c r="E130">
-        <v>75.5</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="F130">
-        <v>65.7</v>
+        <v>88.7</v>
       </c>
       <c r="G130">
-        <v>43.2</v>
+        <v>97.1</v>
       </c>
       <c r="H130">
-        <v>61.8</v>
+        <v>61.3</v>
       </c>
       <c r="I130">
-        <v>58.5</v>
+        <v>57.9</v>
       </c>
       <c r="J130">
-        <v>82.9</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="K130">
-        <v>57.6</v>
+        <v>78.2</v>
       </c>
       <c r="L130">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M130">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B131">
-        <v>76.3</v>
+        <v>62.3</v>
       </c>
       <c r="C131">
-        <v>79.7</v>
+        <v>44</v>
       </c>
       <c r="D131">
-        <v>58.6</v>
+        <v>49.8</v>
       </c>
       <c r="E131">
-        <v>79.2</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="F131">
-        <v>68.599999999999994</v>
+        <v>48.8</v>
       </c>
       <c r="G131">
-        <v>95.7</v>
+        <v>86.4</v>
       </c>
       <c r="H131">
-        <v>62</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="I131">
-        <v>71.3</v>
+        <v>63.9</v>
       </c>
       <c r="J131">
-        <v>79.900000000000006</v>
+        <v>82.1</v>
       </c>
       <c r="K131">
-        <v>67.8</v>
+        <v>86</v>
       </c>
       <c r="L131">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M131">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B132">
-        <v>52.1</v>
+        <v>71.5</v>
       </c>
       <c r="C132">
-        <v>61.8</v>
+        <v>64.3</v>
       </c>
       <c r="D132">
-        <v>47.6</v>
+        <v>59.5</v>
       </c>
       <c r="E132">
-        <v>88</v>
+        <v>59.9</v>
       </c>
       <c r="F132">
+        <v>35.6</v>
+      </c>
+      <c r="G132">
+        <v>69.8</v>
+      </c>
+      <c r="H132">
+        <v>79.7</v>
+      </c>
+      <c r="I132">
+        <v>44.3</v>
+      </c>
+      <c r="J132">
         <v>83</v>
       </c>
-      <c r="G132">
-        <v>89.5</v>
-      </c>
-      <c r="H132">
-        <v>52.6</v>
-      </c>
-      <c r="I132">
-        <v>41.7</v>
-      </c>
-      <c r="J132">
-        <v>66.5</v>
-      </c>
       <c r="K132">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="L132">
+        <v>70</v>
+      </c>
+      <c r="M132">
         <v>60</v>
-      </c>
-      <c r="M132">
-        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B133">
-        <v>47.3</v>
+        <v>64.5</v>
       </c>
       <c r="C133">
-        <v>34.4</v>
+        <v>60</v>
       </c>
       <c r="D133">
-        <v>49.6</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="E133">
-        <v>99.4</v>
+        <v>99.7</v>
       </c>
       <c r="F133">
-        <v>60.3</v>
+        <v>56.8</v>
       </c>
       <c r="G133">
-        <v>41.3</v>
+        <v>94</v>
       </c>
       <c r="H133">
-        <v>71.8</v>
+        <v>71.2</v>
       </c>
       <c r="I133">
-        <v>42.5</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="J133">
-        <v>78.900000000000006</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="K133">
-        <v>74.2</v>
+        <v>83.2</v>
       </c>
       <c r="L133">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M133">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B134">
-        <v>56.6</v>
+        <v>66.7</v>
       </c>
       <c r="C134">
-        <v>49.8</v>
+        <v>51.9</v>
       </c>
       <c r="D134">
-        <v>46.2</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="E134">
-        <v>69.8</v>
+        <v>89.7</v>
       </c>
       <c r="F134">
-        <v>80.5</v>
+        <v>69</v>
       </c>
       <c r="G134">
-        <v>40.6</v>
+        <v>89.3</v>
       </c>
       <c r="H134">
-        <v>53.5</v>
+        <v>63.1</v>
       </c>
       <c r="I134">
-        <v>54</v>
+        <v>64.5</v>
       </c>
       <c r="J134">
-        <v>75.7</v>
+        <v>82.7</v>
       </c>
       <c r="K134">
-        <v>65.400000000000006</v>
+        <v>86</v>
       </c>
       <c r="L134">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M134">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B135">
-        <v>58.7</v>
+        <v>52.4</v>
       </c>
       <c r="C135">
-        <v>50</v>
+        <v>45.1</v>
       </c>
       <c r="D135">
-        <v>37.799999999999997</v>
+        <v>36.6</v>
       </c>
       <c r="E135">
-        <v>87.9</v>
+        <v>89.4</v>
       </c>
       <c r="F135">
-        <v>37.6</v>
+        <v>62.3</v>
       </c>
       <c r="G135">
-        <v>73.5</v>
+        <v>86.6</v>
       </c>
       <c r="H135">
-        <v>74.3</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="I135">
-        <v>68.099999999999994</v>
+        <v>52.5</v>
       </c>
       <c r="J135">
-        <v>78.599999999999994</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="K135">
-        <v>76</v>
+        <v>77.8</v>
       </c>
       <c r="L135">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M135">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B136">
-        <v>79.7</v>
+        <v>72.2</v>
       </c>
       <c r="C136">
-        <v>63.6</v>
+        <v>83.2</v>
       </c>
       <c r="D136">
-        <v>71.5</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="E136">
-        <v>75.099999999999994</v>
+        <v>79.8</v>
       </c>
       <c r="F136">
-        <v>47.8</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="G136">
-        <v>9.4</v>
+        <v>86.3</v>
       </c>
       <c r="H136">
-        <v>65.900000000000006</v>
+        <v>56.2</v>
       </c>
       <c r="I136">
-        <v>62.3</v>
+        <v>82.2</v>
       </c>
       <c r="J136">
-        <v>73.3</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="K136">
-        <v>80.599999999999994</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="L136">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M136">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B137">
-        <v>34.4</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="C137">
-        <v>42.8</v>
+        <v>63.8</v>
       </c>
       <c r="D137">
-        <v>34.4</v>
+        <v>50.3</v>
       </c>
       <c r="E137">
-        <v>87.2</v>
+        <v>76.2</v>
       </c>
       <c r="F137">
-        <v>81.099999999999994</v>
+        <v>79.3</v>
       </c>
       <c r="G137">
-        <v>40.799999999999997</v>
+        <v>81.3</v>
       </c>
       <c r="H137">
-        <v>34.6</v>
+        <v>76.3</v>
       </c>
       <c r="I137">
-        <v>38.299999999999997</v>
+        <v>69.2</v>
       </c>
       <c r="J137">
-        <v>67.599999999999994</v>
+        <v>83.9</v>
       </c>
       <c r="K137">
-        <v>61.5</v>
+        <v>73.2</v>
       </c>
       <c r="L137">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M137">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B138">
-        <v>94</v>
+        <v>36.5</v>
       </c>
       <c r="C138">
-        <v>58.3</v>
+        <v>63.8</v>
       </c>
       <c r="D138">
-        <v>91.2</v>
+        <v>50.5</v>
       </c>
       <c r="E138">
-        <v>90.6</v>
+        <v>71.2</v>
       </c>
       <c r="F138">
-        <v>89</v>
+        <v>74.3</v>
       </c>
       <c r="G138">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H138">
-        <v>86.9</v>
+        <v>76.5</v>
       </c>
       <c r="I138">
-        <v>77.3</v>
+        <v>73.5</v>
       </c>
       <c r="J138">
-        <v>81.900000000000006</v>
+        <v>82.2</v>
       </c>
       <c r="K138">
-        <v>95</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="L138">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="M138">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B139">
-        <v>84.2</v>
+        <v>53.8</v>
       </c>
       <c r="C139">
-        <v>70.599999999999994</v>
+        <v>31</v>
       </c>
       <c r="D139">
-        <v>56.8</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="E139">
-        <v>77.3</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="F139">
-        <v>41.2</v>
+        <v>62.3</v>
       </c>
       <c r="G139">
-        <v>62.4</v>
+        <v>93.6</v>
       </c>
       <c r="H139">
-        <v>72.2</v>
+        <v>77</v>
       </c>
       <c r="I139">
-        <v>64.7</v>
+        <v>78.2</v>
       </c>
       <c r="J139">
-        <v>74.8</v>
+        <v>83.5</v>
       </c>
       <c r="K139">
-        <v>78.599999999999994</v>
+        <v>63.8</v>
       </c>
       <c r="L139">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="M139">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B140">
-        <v>88.6</v>
+        <v>37.4</v>
       </c>
       <c r="C140">
-        <v>83.3</v>
+        <v>26.6</v>
       </c>
       <c r="D140">
-        <v>64.599999999999994</v>
+        <v>35.5</v>
       </c>
       <c r="E140">
-        <v>62.6</v>
+        <v>87.2</v>
       </c>
       <c r="F140">
-        <v>31.5</v>
+        <v>67</v>
       </c>
       <c r="G140">
-        <v>60.4</v>
+        <v>62.3</v>
       </c>
       <c r="H140">
-        <v>75.900000000000006</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="I140">
-        <v>74.400000000000006</v>
+        <v>42.7</v>
       </c>
       <c r="J140">
-        <v>82.4</v>
+        <v>70.5</v>
       </c>
       <c r="K140">
-        <v>78.599999999999994</v>
+        <v>64.2</v>
       </c>
       <c r="L140">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M140">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B141">
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="C141">
-        <v>60.8</v>
+        <v>62.7</v>
       </c>
       <c r="D141">
-        <v>44.8</v>
+        <v>49.8</v>
       </c>
       <c r="E141">
-        <v>71.5</v>
+        <v>99.8</v>
       </c>
       <c r="F141">
-        <v>62.4</v>
+        <v>57.5</v>
       </c>
       <c r="G141">
-        <v>86.9</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H141">
+        <v>72.3</v>
+      </c>
+      <c r="I141">
+        <v>63.3</v>
+      </c>
+      <c r="J141">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="K141">
+        <v>76</v>
+      </c>
+      <c r="L141">
         <v>45</v>
       </c>
-      <c r="I141">
-        <v>60.9</v>
-      </c>
-      <c r="J141">
-        <v>83.8</v>
-      </c>
-      <c r="K141">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="L141">
-        <v>15</v>
-      </c>
       <c r="M141">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B142">
-        <v>42.5</v>
+        <v>47.8</v>
       </c>
       <c r="C142">
-        <v>59.1</v>
+        <v>40.4</v>
       </c>
       <c r="D142">
-        <v>48</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E142">
-        <v>65.599999999999994</v>
+        <v>70.8</v>
       </c>
       <c r="F142">
-        <v>67.3</v>
+        <v>73.3</v>
       </c>
       <c r="G142">
-        <v>5.9</v>
+        <v>60</v>
       </c>
       <c r="H142">
-        <v>64.5</v>
+        <v>53.3</v>
       </c>
       <c r="I142">
-        <v>71.599999999999994</v>
+        <v>39.4</v>
       </c>
       <c r="J142">
-        <v>77</v>
+        <v>78.2</v>
       </c>
       <c r="K142">
-        <v>72.400000000000006</v>
+        <v>72</v>
       </c>
       <c r="L142">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M142">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="B143">
-        <v>88.5</v>
+        <v>50.1</v>
       </c>
       <c r="C143">
-        <v>76.8</v>
+        <v>44.8</v>
       </c>
       <c r="D143">
-        <v>68.7</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E143">
-        <v>60.1</v>
+        <v>82</v>
       </c>
       <c r="F143">
-        <v>82</v>
+        <v>45.1</v>
       </c>
       <c r="G143">
-        <v>94.1</v>
+        <v>90.1</v>
       </c>
       <c r="H143">
-        <v>84.8</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="I143">
-        <v>56.2</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="J143">
-        <v>81.400000000000006</v>
+        <v>80</v>
       </c>
       <c r="K143">
-        <v>72.2</v>
+        <v>77</v>
       </c>
       <c r="L143">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M143">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B144">
-        <v>87.2</v>
+        <v>58.2</v>
       </c>
       <c r="C144">
-        <v>73.099999999999994</v>
+        <v>37.5</v>
       </c>
       <c r="D144">
-        <v>66.900000000000006</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="E144">
-        <v>58.2</v>
+        <v>76.3</v>
       </c>
       <c r="F144">
-        <v>30.2</v>
+        <v>60.3</v>
       </c>
       <c r="G144">
-        <v>7.4</v>
+        <v>92</v>
       </c>
       <c r="H144">
-        <v>75.2</v>
+        <v>63.3</v>
       </c>
       <c r="I144">
-        <v>62.1</v>
+        <v>63.2</v>
       </c>
       <c r="J144">
-        <v>80.599999999999994</v>
+        <v>80</v>
       </c>
       <c r="K144">
-        <v>83.6</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="L144">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="M144">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B145">
-        <v>51.6</v>
+        <v>35.5</v>
       </c>
       <c r="C145">
-        <v>49.7</v>
+        <v>34.5</v>
       </c>
       <c r="D145">
-        <v>39.5</v>
+        <v>26.2</v>
       </c>
       <c r="E145">
-        <v>90.3</v>
+        <v>87.3</v>
       </c>
       <c r="F145">
-        <v>88</v>
+        <v>84.4</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="H145">
-        <v>54.4</v>
+        <v>44.9</v>
       </c>
       <c r="I145">
-        <v>55.8</v>
+        <v>29.3</v>
       </c>
       <c r="J145">
-        <v>70.2</v>
+        <v>65</v>
       </c>
       <c r="K145">
-        <v>67.2</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="L145">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M145">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B146">
-        <v>41.9</v>
+        <v>97.4</v>
       </c>
       <c r="C146">
-        <v>46.2</v>
+        <v>92.4</v>
       </c>
       <c r="D146">
-        <v>38.6</v>
+        <v>95.1</v>
       </c>
       <c r="E146">
-        <v>70.8</v>
+        <v>90.4</v>
       </c>
       <c r="F146">
-        <v>61.4</v>
+        <v>90.7</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H146">
-        <v>52.8</v>
+        <v>90.8</v>
       </c>
       <c r="I146">
-        <v>64.400000000000006</v>
+        <v>91</v>
       </c>
       <c r="J146">
-        <v>46</v>
+        <v>85.3</v>
       </c>
       <c r="K146">
-        <v>60.6</v>
+        <v>94.8</v>
       </c>
       <c r="L146">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="M146">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B147">
-        <v>96.6</v>
+        <v>68.5</v>
       </c>
       <c r="C147">
-        <v>95.6</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="D147">
-        <v>95.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="E147">
-        <v>45.1</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="F147">
-        <v>26.2</v>
+        <v>46.1</v>
       </c>
       <c r="G147">
-        <v>96.2</v>
+        <v>87.2</v>
       </c>
       <c r="H147">
-        <v>84.6</v>
+        <v>61.3</v>
       </c>
       <c r="I147">
-        <v>65.900000000000006</v>
+        <v>53.4</v>
       </c>
       <c r="J147">
-        <v>80.900000000000006</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="K147">
-        <v>78.599999999999994</v>
+        <v>86</v>
       </c>
       <c r="L147">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="M147">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B148">
-        <v>94.2</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="C148">
-        <v>97.8</v>
+        <v>46.5</v>
       </c>
       <c r="D148">
-        <v>92.3</v>
+        <v>53.6</v>
       </c>
       <c r="E148">
-        <v>70.599999999999994</v>
+        <v>58.4</v>
       </c>
       <c r="F148">
-        <v>63.9</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="G148">
-        <v>95.4</v>
+        <v>82.6</v>
       </c>
       <c r="H148">
-        <v>84.3</v>
+        <v>79.3</v>
       </c>
       <c r="I148">
-        <v>60.5</v>
+        <v>61.2</v>
       </c>
       <c r="J148">
-        <v>85.1</v>
+        <v>83.6</v>
       </c>
       <c r="K148">
-        <v>86.6</v>
+        <v>86</v>
       </c>
       <c r="L148">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="M148">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B149">
-        <v>81.900000000000006</v>
+        <v>49.9</v>
       </c>
       <c r="C149">
-        <v>94.7</v>
+        <v>51.7</v>
       </c>
       <c r="D149">
-        <v>76.3</v>
+        <v>33.5</v>
       </c>
       <c r="E149">
-        <v>79.3</v>
+        <v>65.5</v>
       </c>
       <c r="F149">
-        <v>91.1</v>
+        <v>36.5</v>
       </c>
       <c r="G149">
-        <v>93.6</v>
+        <v>89.4</v>
       </c>
       <c r="H149">
-        <v>84.3</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="I149">
-        <v>69.099999999999994</v>
+        <v>72</v>
       </c>
       <c r="J149">
-        <v>82.5</v>
+        <v>86</v>
       </c>
       <c r="K149">
-        <v>85.8</v>
+        <v>56.8</v>
       </c>
       <c r="L149">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="M149">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B150">
-        <v>29.2</v>
+        <v>58.8</v>
       </c>
       <c r="C150">
-        <v>11.7</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="D150">
-        <v>17.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="E150">
-        <v>92</v>
+        <v>62.1</v>
       </c>
       <c r="F150">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="G150">
+        <v>62.6</v>
+      </c>
+      <c r="H150">
+        <v>64.3</v>
+      </c>
+      <c r="I150">
+        <v>59.1</v>
+      </c>
+      <c r="J150">
         <v>75.2</v>
       </c>
-      <c r="G150">
-        <v>87.2</v>
-      </c>
-      <c r="H150">
-        <v>56.8</v>
-      </c>
-      <c r="I150">
-        <v>43.6</v>
-      </c>
-      <c r="J150">
-        <v>66.3</v>
-      </c>
       <c r="K150">
-        <v>72.2</v>
+        <v>76</v>
       </c>
       <c r="L150">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M150">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B151">
-        <v>44.8</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="C151">
-        <v>28.3</v>
+        <v>51.4</v>
       </c>
       <c r="D151">
-        <v>37.4</v>
+        <v>51.9</v>
       </c>
       <c r="E151">
-        <v>80.599999999999994</v>
+        <v>62.3</v>
       </c>
       <c r="F151">
-        <v>91.3</v>
+        <v>46.2</v>
       </c>
       <c r="G151">
-        <v>86.5</v>
+        <v>51.1</v>
       </c>
       <c r="H151">
-        <v>50.1</v>
+        <v>66.8</v>
       </c>
       <c r="I151">
-        <v>62.4</v>
+        <v>57.8</v>
       </c>
       <c r="J151">
-        <v>73</v>
+        <v>87.5</v>
       </c>
       <c r="K151">
-        <v>60.6</v>
+        <v>86</v>
       </c>
       <c r="L151">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="M151">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B152">
-        <v>44.2</v>
+        <v>44.7</v>
       </c>
       <c r="C152">
-        <v>35.1</v>
+        <v>39.4</v>
       </c>
       <c r="D152">
-        <v>37.700000000000003</v>
+        <v>28.9</v>
       </c>
       <c r="E152">
-        <v>81</v>
+        <v>84.9</v>
       </c>
       <c r="F152">
-        <v>81.5</v>
+        <v>88.3</v>
       </c>
       <c r="G152">
-        <v>65.2</v>
+        <v>30.4</v>
       </c>
       <c r="H152">
-        <v>66.599999999999994</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="I152">
-        <v>56.6</v>
+        <v>58.8</v>
       </c>
       <c r="J152">
-        <v>73.400000000000006</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="K152">
-        <v>70.8</v>
+        <v>76.2</v>
       </c>
       <c r="L152">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M152">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B153">
-        <v>60.5</v>
+        <v>27.5</v>
       </c>
       <c r="C153">
-        <v>78.3</v>
+        <v>22.2</v>
       </c>
       <c r="D153">
-        <v>65.7</v>
+        <v>26.2</v>
       </c>
       <c r="E153">
-        <v>96.5</v>
+        <v>86.3</v>
       </c>
       <c r="F153">
-        <v>79.3</v>
+        <v>96.6</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="H153">
-        <v>67</v>
+        <v>52.1</v>
       </c>
       <c r="I153">
-        <v>68.599999999999994</v>
+        <v>59</v>
       </c>
       <c r="J153">
-        <v>75.7</v>
+        <v>56.9</v>
       </c>
       <c r="K153">
-        <v>49.6</v>
+        <v>45</v>
       </c>
       <c r="L153">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M153">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B154">
-        <v>47.2</v>
+        <v>49.1</v>
       </c>
       <c r="C154">
-        <v>36.4</v>
+        <v>22.2</v>
       </c>
       <c r="D154">
-        <v>36.9</v>
+        <v>35.5</v>
       </c>
       <c r="E154">
-        <v>79.3</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="F154">
-        <v>83.5</v>
+        <v>77.2</v>
       </c>
       <c r="G154">
-        <v>70.400000000000006</v>
+        <v>9.6</v>
       </c>
       <c r="H154">
-        <v>50.5</v>
+        <v>48.3</v>
       </c>
       <c r="I154">
-        <v>47.4</v>
+        <v>73.5</v>
       </c>
       <c r="J154">
-        <v>63.3</v>
+        <v>56</v>
       </c>
       <c r="K154">
-        <v>64.400000000000006</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="L154">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="M154">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B155">
-        <v>38.200000000000003</v>
+        <v>89.5</v>
       </c>
       <c r="C155">
-        <v>36.299999999999997</v>
+        <v>84</v>
       </c>
       <c r="D155">
-        <v>40.1</v>
+        <v>88</v>
       </c>
       <c r="E155">
-        <v>97.5</v>
+        <v>43.2</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="G155">
-        <v>19.8</v>
+        <v>96.6</v>
       </c>
       <c r="H155">
-        <v>58.4</v>
+        <v>88</v>
       </c>
       <c r="I155">
-        <v>56.5</v>
+        <v>53.9</v>
       </c>
       <c r="J155">
-        <v>74.599999999999994</v>
+        <v>82</v>
       </c>
       <c r="K155">
-        <v>79.900000000000006</v>
+        <v>86</v>
       </c>
       <c r="L155">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="M155">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B156">
-        <v>35.799999999999997</v>
+        <v>85.3</v>
       </c>
       <c r="C156">
-        <v>36.799999999999997</v>
+        <v>82</v>
       </c>
       <c r="D156">
-        <v>30.1</v>
+        <v>88</v>
       </c>
       <c r="E156">
-        <v>70.2</v>
+        <v>70.5</v>
       </c>
       <c r="F156">
-        <v>87.1</v>
+        <v>64.8</v>
       </c>
       <c r="G156">
-        <v>69.400000000000006</v>
+        <v>96.3</v>
       </c>
       <c r="H156">
-        <v>51.2</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="I156">
-        <v>51.9</v>
+        <v>72.5</v>
       </c>
       <c r="J156">
-        <v>73.400000000000006</v>
+        <v>85.2</v>
       </c>
       <c r="K156">
-        <v>67.2</v>
+        <v>87.4</v>
       </c>
       <c r="L156">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="M156">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B157">
-        <v>64.599999999999994</v>
+        <v>85.4</v>
       </c>
       <c r="C157">
-        <v>68.8</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="D157">
-        <v>43.2</v>
+        <v>69.2</v>
       </c>
       <c r="E157">
-        <v>85.4</v>
+        <v>75</v>
       </c>
       <c r="F157">
-        <v>46.5</v>
+        <v>90.6</v>
       </c>
       <c r="G157">
-        <v>95.5</v>
+        <v>91.6</v>
       </c>
       <c r="H157">
-        <v>55.7</v>
+        <v>93.2</v>
       </c>
       <c r="I157">
-        <v>56.1</v>
+        <v>60.9</v>
       </c>
       <c r="J157">
-        <v>72.7</v>
+        <v>84.4</v>
       </c>
       <c r="K157">
-        <v>71.900000000000006</v>
+        <v>87</v>
       </c>
       <c r="L157">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M157">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B158">
-        <v>58.1</v>
+        <v>47.8</v>
       </c>
       <c r="C158">
-        <v>59.9</v>
+        <v>52.1</v>
       </c>
       <c r="D158">
-        <v>45.2</v>
+        <v>36.4</v>
       </c>
       <c r="E158">
-        <v>80.3</v>
+        <v>91.8</v>
       </c>
       <c r="F158">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="G158">
+        <v>60.3</v>
+      </c>
+      <c r="H158">
+        <v>67.3</v>
+      </c>
+      <c r="I158">
+        <v>49.2</v>
+      </c>
+      <c r="J158">
         <v>68.5</v>
       </c>
-      <c r="G158">
-        <v>12.7</v>
-      </c>
-      <c r="H158">
-        <v>64.5</v>
-      </c>
-      <c r="I158">
-        <v>64.8</v>
-      </c>
-      <c r="J158">
-        <v>83</v>
-      </c>
       <c r="K158">
-        <v>66.900000000000006</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="L158">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="M158">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B159">
-        <v>61.8</v>
+        <v>35.4</v>
       </c>
       <c r="C159">
-        <v>49</v>
+        <v>41.4</v>
       </c>
       <c r="D159">
-        <v>46.7</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="E159">
-        <v>73.7</v>
+        <v>80.5</v>
       </c>
       <c r="F159">
-        <v>68.400000000000006</v>
+        <v>90.3</v>
       </c>
       <c r="G159">
-        <v>13.7</v>
+        <v>85.2</v>
       </c>
       <c r="H159">
-        <v>54.4</v>
+        <v>46.6</v>
       </c>
       <c r="I159">
-        <v>55.8</v>
+        <v>66.2</v>
       </c>
       <c r="J159">
-        <v>74.8</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="K159">
-        <v>66.3</v>
+        <v>67.8</v>
       </c>
       <c r="L159">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M159">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B160">
-        <v>40.799999999999997</v>
+        <v>53.7</v>
       </c>
       <c r="C160">
-        <v>24.2</v>
+        <v>45.9</v>
       </c>
       <c r="D160">
-        <v>37.1</v>
+        <v>36.4</v>
       </c>
       <c r="E160">
-        <v>73</v>
+        <v>81.3</v>
       </c>
       <c r="F160">
-        <v>66.099999999999994</v>
+        <v>85.8</v>
       </c>
       <c r="G160">
-        <v>63</v>
+        <v>96.5</v>
       </c>
       <c r="H160">
-        <v>59.7</v>
+        <v>82.5</v>
       </c>
       <c r="I160">
-        <v>54.9</v>
+        <v>63.9</v>
       </c>
       <c r="J160">
-        <v>58.6</v>
+        <v>75.2</v>
       </c>
       <c r="K160">
-        <v>75.8</v>
+        <v>83</v>
       </c>
       <c r="L160">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="M160">
         <v>60</v>
@@ -7504,327 +7525,327 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B161">
-        <v>19.100000000000001</v>
+        <v>29.7</v>
       </c>
       <c r="C161">
-        <v>9.6999999999999993</v>
+        <v>13.1</v>
       </c>
       <c r="D161">
-        <v>8.1</v>
+        <v>32.1</v>
       </c>
       <c r="E161">
-        <v>94.3</v>
+        <v>96.3</v>
       </c>
       <c r="F161">
-        <v>96.2</v>
+        <v>0.9</v>
       </c>
       <c r="G161">
-        <v>99.8</v>
+        <v>20</v>
       </c>
       <c r="H161">
-        <v>37.299999999999997</v>
+        <v>60.5</v>
       </c>
       <c r="I161">
-        <v>31.4</v>
+        <v>58.8</v>
       </c>
       <c r="J161">
-        <v>67.8</v>
+        <v>79.5</v>
       </c>
       <c r="K161">
-        <v>74.2</v>
+        <v>75</v>
       </c>
       <c r="L161">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M161">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B162">
-        <v>47.7</v>
+        <v>35.5</v>
       </c>
       <c r="C162">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="D162">
-        <v>24.3</v>
+        <v>28.1</v>
       </c>
       <c r="E162">
-        <v>73.5</v>
+        <v>67.8</v>
       </c>
       <c r="F162">
-        <v>87.4</v>
+        <v>77</v>
       </c>
       <c r="G162">
-        <v>23.3</v>
+        <v>24.5</v>
       </c>
       <c r="H162">
-        <v>46.1</v>
+        <v>50.4</v>
       </c>
       <c r="I162">
-        <v>54.7</v>
+        <v>46.7</v>
       </c>
       <c r="J162">
-        <v>80.3</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="K162">
-        <v>55.4</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="L162">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M162">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B163">
-        <v>65.400000000000006</v>
+        <v>59.2</v>
       </c>
       <c r="C163">
-        <v>34.5</v>
+        <v>26.6</v>
       </c>
       <c r="D163">
-        <v>68.8</v>
+        <v>38.1</v>
       </c>
       <c r="E163">
-        <v>100</v>
+        <v>85.5</v>
       </c>
       <c r="F163">
-        <v>71.599999999999994</v>
+        <v>40.9</v>
       </c>
       <c r="G163">
-        <v>96.4</v>
+        <v>93.4</v>
       </c>
       <c r="H163">
-        <v>77</v>
+        <v>75.3</v>
       </c>
       <c r="I163">
-        <v>64.5</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="J163">
-        <v>84.3</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="K163">
-        <v>78</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="L163">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M163">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B164">
-        <v>95.1</v>
+        <v>52.3</v>
       </c>
       <c r="C164">
-        <v>84.8</v>
+        <v>40.6</v>
       </c>
       <c r="D164">
-        <v>86.4</v>
+        <v>32.9</v>
       </c>
       <c r="E164">
-        <v>65.400000000000006</v>
+        <v>82.3</v>
       </c>
       <c r="F164">
-        <v>41.9</v>
+        <v>61.9</v>
       </c>
       <c r="G164">
-        <v>1.8</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="H164">
-        <v>79.099999999999994</v>
+        <v>67.8</v>
       </c>
       <c r="I164">
-        <v>62.2</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="J164">
-        <v>80.8</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="K164">
-        <v>81.8</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="L164">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M164">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B165">
-        <v>94.7</v>
+        <v>49.2</v>
       </c>
       <c r="C165">
-        <v>76.099999999999994</v>
+        <v>42.7</v>
       </c>
       <c r="D165">
-        <v>73.400000000000006</v>
+        <v>36.6</v>
       </c>
       <c r="E165">
-        <v>75.400000000000006</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="F165">
-        <v>49.3</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="G165">
-        <v>0</v>
+        <v>37.9</v>
       </c>
       <c r="H165">
-        <v>83.8</v>
+        <v>76.7</v>
       </c>
       <c r="I165">
-        <v>76.3</v>
+        <v>50.3</v>
       </c>
       <c r="J165">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K165">
-        <v>75.400000000000006</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="L165">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="M165">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B166">
-        <v>84.3</v>
+        <v>55.8</v>
       </c>
       <c r="C166">
-        <v>80.599999999999994</v>
+        <v>49.8</v>
       </c>
       <c r="D166">
-        <v>77.3</v>
+        <v>41.2</v>
       </c>
       <c r="E166">
-        <v>73.7</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="F166">
-        <v>70.099999999999994</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="G166">
-        <v>73.3</v>
+        <v>92.2</v>
       </c>
       <c r="H166">
-        <v>80.099999999999994</v>
+        <v>66</v>
       </c>
       <c r="I166">
-        <v>60.8</v>
+        <v>49.2</v>
       </c>
       <c r="J166">
-        <v>71.8</v>
+        <v>70</v>
       </c>
       <c r="K166">
-        <v>70.8</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="L166">
         <v>70</v>
       </c>
       <c r="M166">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B167">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="C167">
-        <v>13</v>
+        <v>29.8</v>
       </c>
       <c r="D167">
-        <v>24.9</v>
+        <v>20.3</v>
       </c>
       <c r="E167">
-        <v>92.8</v>
+        <v>95.9</v>
       </c>
       <c r="F167">
-        <v>74.900000000000006</v>
+        <v>92</v>
       </c>
       <c r="G167">
-        <v>85.3</v>
+        <v>92.3</v>
       </c>
       <c r="H167">
-        <v>58.9</v>
+        <v>30</v>
       </c>
       <c r="I167">
-        <v>48.1</v>
+        <v>20</v>
       </c>
       <c r="J167">
-        <v>63.4</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="K167">
         <v>76</v>
       </c>
       <c r="L167">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M167">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B168">
-        <v>60.3</v>
+        <v>42.2</v>
       </c>
       <c r="C168">
-        <v>72.2</v>
+        <v>38.5</v>
       </c>
       <c r="D168">
-        <v>45.5</v>
+        <v>25.4</v>
       </c>
       <c r="E168">
-        <v>98</v>
+        <v>73.3</v>
       </c>
       <c r="F168">
-        <v>45.5</v>
+        <v>88.7</v>
       </c>
       <c r="G168">
-        <v>95.4</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="H168">
-        <v>49.8</v>
+        <v>46.3</v>
       </c>
       <c r="I168">
-        <v>40.1</v>
+        <v>83.2</v>
       </c>
       <c r="J168">
-        <v>73.8</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="K168">
-        <v>59.7</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="L168">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M168">
         <v>40</v>
@@ -7832,84 +7853,412 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B169">
-        <v>48.7</v>
+        <v>43.9</v>
       </c>
       <c r="C169">
-        <v>35.1</v>
+        <v>31.5</v>
       </c>
       <c r="D169">
-        <v>36.4</v>
+        <v>29.6</v>
       </c>
       <c r="E169">
-        <v>78.599999999999994</v>
+        <v>81.8</v>
       </c>
       <c r="F169">
-        <v>86.5</v>
+        <v>46.9</v>
       </c>
       <c r="G169">
-        <v>88.7</v>
+        <v>82.6</v>
       </c>
       <c r="H169">
-        <v>73.400000000000006</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="I169">
-        <v>54.1</v>
+        <v>46.7</v>
       </c>
       <c r="J169">
-        <v>70.5</v>
+        <v>58.6</v>
       </c>
       <c r="K169">
-        <v>79.400000000000006</v>
+        <v>75</v>
       </c>
       <c r="L169">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M169">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B170">
-        <v>36</v>
+        <v>81.8</v>
       </c>
       <c r="C170">
-        <v>44.4</v>
+        <v>87.1</v>
       </c>
       <c r="D170">
-        <v>29.9</v>
+        <v>78.8</v>
       </c>
       <c r="E170">
-        <v>74.8</v>
+        <v>99.2</v>
       </c>
       <c r="F170">
-        <v>69.599999999999994</v>
+        <v>68.8</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>88.9</v>
       </c>
       <c r="H170">
-        <v>43.9</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="I170">
-        <v>42.1</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="J170">
-        <v>62.2</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="K170">
-        <v>65.2</v>
+        <v>84.4</v>
       </c>
       <c r="L170">
+        <v>40</v>
+      </c>
+      <c r="M170">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>181</v>
+      </c>
+      <c r="B171">
+        <v>92.3</v>
+      </c>
+      <c r="C171">
+        <v>85.9</v>
+      </c>
+      <c r="D171">
+        <v>83.8</v>
+      </c>
+      <c r="E171">
+        <v>64.7</v>
+      </c>
+      <c r="F171">
+        <v>48.2</v>
+      </c>
+      <c r="G171">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="H171">
+        <v>92.9</v>
+      </c>
+      <c r="I171">
+        <v>73.5</v>
+      </c>
+      <c r="J171">
+        <v>81.2</v>
+      </c>
+      <c r="K171">
+        <v>86</v>
+      </c>
+      <c r="L171">
+        <v>90</v>
+      </c>
+      <c r="M171">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>182</v>
+      </c>
+      <c r="B172">
+        <v>79.3</v>
+      </c>
+      <c r="C172">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="D172">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E172">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="F172">
+        <v>57.1</v>
+      </c>
+      <c r="G172">
+        <v>53.1</v>
+      </c>
+      <c r="H172">
+        <v>83.8</v>
+      </c>
+      <c r="I172">
+        <v>89.4</v>
+      </c>
+      <c r="J172">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="K172">
+        <v>86.6</v>
+      </c>
+      <c r="L172">
+        <v>85</v>
+      </c>
+      <c r="M172">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>183</v>
+      </c>
+      <c r="B173">
+        <v>68.3</v>
+      </c>
+      <c r="C173">
+        <v>58.9</v>
+      </c>
+      <c r="D173">
+        <v>69.2</v>
+      </c>
+      <c r="E173">
+        <v>77.2</v>
+      </c>
+      <c r="F173">
+        <v>67.5</v>
+      </c>
+      <c r="G173">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="H173">
+        <v>74.3</v>
+      </c>
+      <c r="I173">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="J173">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="K173">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="L173">
+        <v>85</v>
+      </c>
+      <c r="M173">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>184</v>
+      </c>
+      <c r="B174">
+        <v>49.8</v>
+      </c>
+      <c r="C174">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D174">
+        <v>25.2</v>
+      </c>
+      <c r="E174">
+        <v>91.3</v>
+      </c>
+      <c r="F174">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="G174">
+        <v>98.7</v>
+      </c>
+      <c r="H174">
+        <v>72.5</v>
+      </c>
+      <c r="I174">
+        <v>58.7</v>
+      </c>
+      <c r="J174">
+        <v>58.9</v>
+      </c>
+      <c r="K174">
+        <v>62.6</v>
+      </c>
+      <c r="L174">
+        <v>10</v>
+      </c>
+      <c r="M174">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>185</v>
+      </c>
+      <c r="B175">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="C175">
+        <v>36.4</v>
+      </c>
+      <c r="D175">
+        <v>51.9</v>
+      </c>
+      <c r="E175">
+        <v>97.3</v>
+      </c>
+      <c r="F175">
+        <v>54.1</v>
+      </c>
+      <c r="G175">
+        <v>15.3</v>
+      </c>
+      <c r="H175">
+        <v>52.4</v>
+      </c>
+      <c r="I175">
+        <v>58.8</v>
+      </c>
+      <c r="J175">
+        <v>75</v>
+      </c>
+      <c r="K175">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="L175">
+        <v>65</v>
+      </c>
+      <c r="M175">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>186</v>
+      </c>
+      <c r="B176">
+        <v>49.8</v>
+      </c>
+      <c r="C176">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="D176">
+        <v>34</v>
+      </c>
+      <c r="E176">
+        <v>79.7</v>
+      </c>
+      <c r="F176">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="G176">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="H176">
+        <v>63.5</v>
+      </c>
+      <c r="I176">
+        <v>62.8</v>
+      </c>
+      <c r="J176">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="K176">
+        <v>79.2</v>
+      </c>
+      <c r="L176">
+        <v>30</v>
+      </c>
+      <c r="M176">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>187</v>
+      </c>
+      <c r="B177">
+        <v>45</v>
+      </c>
+      <c r="C177">
+        <v>35.6</v>
+      </c>
+      <c r="D177">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E177">
+        <v>72.3</v>
+      </c>
+      <c r="F177">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="G177">
+        <v>12.3</v>
+      </c>
+      <c r="H177">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="I177">
+        <v>46</v>
+      </c>
+      <c r="J177">
+        <v>70.3</v>
+      </c>
+      <c r="K177">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="L177">
         <v>55</v>
       </c>
-      <c r="M170">
+      <c r="M177">
         <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>188</v>
+      </c>
+      <c r="B178">
+        <v>29.7</v>
+      </c>
+      <c r="C178">
+        <v>24.8</v>
+      </c>
+      <c r="D178">
+        <v>15.8</v>
+      </c>
+      <c r="E178">
+        <v>62.3</v>
+      </c>
+      <c r="F178">
+        <v>74.5</v>
+      </c>
+      <c r="G178">
+        <v>23.7</v>
+      </c>
+      <c r="H178">
+        <v>33.4</v>
+      </c>
+      <c r="I178">
+        <v>43.3</v>
+      </c>
+      <c r="J178">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="K178">
+        <v>70</v>
+      </c>
+      <c r="L178">
+        <v>25</v>
+      </c>
+      <c r="M178">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
